--- a/ThermosFlaskModel.xlsx
+++ b/ThermosFlaskModel.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="27">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -34,7 +34,31 @@
     <t xml:space="preserve">Fit constant</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">final</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Model offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp. offset</t>
   </si>
   <si>
     <t xml:space="preserve">(hh:mm:ss abs)</t>
@@ -132,7 +156,7 @@
     <numFmt numFmtId="172" formatCode="0.000"/>
     <numFmt numFmtId="173" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -155,6 +179,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <vertAlign val="subscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -456,7 +487,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -585,16 +616,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1975.66134333278</c:v>
+                  <c:v>923.159080242194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46795.6613433328</c:v>
+                  <c:v>45743.1590802422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71995.6613433328</c:v>
+                  <c:v>70943.1590802422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85615.6613433328</c:v>
+                  <c:v>84563.1590802422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,132 +851,132 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.3268036914556</c:v>
+                  <c:v>97.0313309596412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.7250671679514</c:v>
+                  <c:v>94.1728243676721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.1928801691516</c:v>
+                  <c:v>91.4203922759686</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.7283834997291</c:v>
+                  <c:v>88.7700984334692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.3297676642978</c:v>
+                  <c:v>86.2181526569458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.9952715388354</c:v>
+                  <c:v>83.7609054106654</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.723181077622</c:v>
+                  <c:v>81.3948425871918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.5118280547445</c:v>
+                  <c:v>79.116580481863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.3595888392435</c:v>
+                  <c:v>76.9228609537582</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76.2648832030023</c:v>
+                  <c:v>74.8105467662323</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.2261731605039</c:v>
+                  <c:v>72.7766171003566</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.2419618396036</c:v>
+                  <c:v>70.8181632348478</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70.3107923824873</c:v>
+                  <c:v>68.9323843863079</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.4312468760104</c:v>
+                  <c:v>67.1165837038257</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66.60194531063</c:v>
+                  <c:v>65.3681644122129</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.8215445671675</c:v>
+                  <c:v>63.6846260983574</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>63.0887374306565</c:v>
+                  <c:v>62.0635611353843</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>61.4022516305529</c:v>
+                  <c:v>60.5026512395111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59.7608489066019</c:v>
+                  <c:v>58.9996641546712</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.1633240996758</c:v>
+                  <c:v>57.5524504601667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.6085042669166</c:v>
+                  <c:v>56.1589404967828</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55.0952478205312</c:v>
+                  <c:v>54.8171414069706</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.6224436896094</c:v>
+                  <c:v>53.5251342848623</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.1890105043474</c:v>
+                  <c:v>52.2810714320455</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50.7938958020794</c:v>
+                  <c:v>51.0831737151714</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>49.4360752545323</c:v>
+                  <c:v>49.9297280216173</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.114551915739</c:v>
+                  <c:v>48.8190848095656</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.8283554900548</c:v>
+                  <c:v>47.7496557489952</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.5765416197426</c:v>
+                  <c:v>46.719911450212</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44.3581911916014</c:v>
+                  <c:v>45.7283792766698</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43.1724096621305</c:v>
+                  <c:v>44.7736412389541</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42.0183264007328</c:v>
+                  <c:v>43.8543319669161</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.8950940504762</c:v>
+                  <c:v>42.9691367570582</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39.8018879059432</c:v>
+                  <c:v>42.1167896923777</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>38.7379053077105</c:v>
+                  <c:v>41.296071831979</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.7023650530174</c:v>
+                  <c:v>40.5058094678684</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36.6945068221862</c:v>
+                  <c:v>39.7448724464339</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.713590620377</c:v>
+                  <c:v>39.0121725522143</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34.7588962342644</c:v>
+                  <c:v>38.3066619516429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="61576796"/>
-        <c:axId val="78552674"/>
+        <c:axId val="35656813"/>
+        <c:axId val="68910199"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61576796"/>
+        <c:axId val="35656813"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,12 +1032,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78552674"/>
+        <c:crossAx val="68910199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78552674"/>
+        <c:axId val="68910199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1102,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61576796"/>
+        <c:crossAx val="35656813"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1129,7 +1160,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1233,16 +1264,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1975.66134333278</c:v>
+                  <c:v>923.159080242194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46795.6613433328</c:v>
+                  <c:v>45743.1590802422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71995.6613433328</c:v>
+                  <c:v>70943.1590802422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85615.6613433328</c:v>
+                  <c:v>84563.1590802422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1468,121 +1499,121 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.3268036914556</c:v>
+                  <c:v>97.0313309596412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.7250671679514</c:v>
+                  <c:v>94.1728243676721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.1928801691516</c:v>
+                  <c:v>91.4203922759686</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.7283834997291</c:v>
+                  <c:v>88.7700984334692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.3297676642978</c:v>
+                  <c:v>86.2181526569458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.9952715388354</c:v>
+                  <c:v>83.7609054106654</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.723181077622</c:v>
+                  <c:v>81.3948425871918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.5118280547445</c:v>
+                  <c:v>79.116580481863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.3595888392435</c:v>
+                  <c:v>76.9228609537582</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76.2648832030023</c:v>
+                  <c:v>74.8105467662323</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.2261731605039</c:v>
+                  <c:v>72.7766171003566</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.2419618396036</c:v>
+                  <c:v>70.8181632348478</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70.3107923824873</c:v>
+                  <c:v>68.9323843863079</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.4312468760104</c:v>
+                  <c:v>67.1165837038257</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66.60194531063</c:v>
+                  <c:v>65.3681644122129</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.8215445671675</c:v>
+                  <c:v>63.6846260983574</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>63.0887374306565</c:v>
+                  <c:v>62.0635611353843</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>61.4022516305529</c:v>
+                  <c:v>60.5026512395111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59.7608489066019</c:v>
+                  <c:v>58.9996641546712</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.1633240996758</c:v>
+                  <c:v>57.5524504601667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.6085042669166</c:v>
+                  <c:v>56.1589404967828</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55.0952478205312</c:v>
+                  <c:v>54.8171414069706</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.6224436896094</c:v>
+                  <c:v>53.5251342848623</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.1890105043474</c:v>
+                  <c:v>52.2810714320455</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50.7938958020794</c:v>
+                  <c:v>51.0831737151714</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>49.4360752545323</c:v>
+                  <c:v>49.9297280216173</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.114551915739</c:v>
+                  <c:v>48.8190848095656</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.8283554900548</c:v>
+                  <c:v>47.7496557489952</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.5765416197426</c:v>
+                  <c:v>46.719911450212</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44.3581911916014</c:v>
+                  <c:v>45.7283792766698</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43.1724096621305</c:v>
+                  <c:v>44.7736412389541</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42.0183264007328</c:v>
+                  <c:v>43.8543319669161</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.8950940504762</c:v>
+                  <c:v>42.9691367570582</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39.8018879059432</c:v>
+                  <c:v>42.1167896923777</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>38.7379053077105</c:v>
+                  <c:v>41.296071831979</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.7023650530174</c:v>
+                  <c:v>40.5058094678684</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36.6945068221862</c:v>
+                  <c:v>39.7448724464339</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.713590620377</c:v>
+                  <c:v>39.0121725522143</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34.7588962342644</c:v>
+                  <c:v>38.3066619516429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1655,13 +1686,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>64269.373125447</c:v>
+                  <c:v>62388.8785757755</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67869.373125447</c:v>
+                  <c:v>65988.8785757755</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71469.373125447</c:v>
+                  <c:v>69588.8785757755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,28 +1704,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>61.6257456</c:v>
+                  <c:v>61.512576</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.3742544</c:v>
+                  <c:v>58.487424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="28906261"/>
-        <c:axId val="4752507"/>
+        <c:axId val="51047142"/>
+        <c:axId val="87685454"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="28906261"/>
+        <c:axId val="51047142"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="72500"/>
-          <c:min val="64000"/>
+          <c:max val="70000"/>
+          <c:min val="62000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1748,12 +1779,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4752507"/>
+        <c:crossAx val="87685454"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4752507"/>
+        <c:axId val="87685454"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +1849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28906261"/>
+        <c:crossAx val="51047142"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1866,7 +1897,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1995,22 +2026,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10098.7146071093</c:v>
+                  <c:v>6906.47117718658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16218.7146071093</c:v>
+                  <c:v>13026.4711771866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35238.7146071093</c:v>
+                  <c:v>32046.4711771866</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63738.7146071093</c:v>
+                  <c:v>60546.4711771866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75138.7146071093</c:v>
+                  <c:v>71946.4711771866</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104718.714607109</c:v>
+                  <c:v>101526.471177187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2242,132 +2273,132 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.2860634344466</c:v>
+                  <c:v>96.8839417395563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.6457813857117</c:v>
+                  <c:v>93.8892562176435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.0771549169312</c:v>
+                  <c:v>91.0112158777056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.5782393411193</c:v>
+                  <c:v>88.2452773049571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.1471427488618</c:v>
+                  <c:v>85.5870740539273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.7820245759654</c:v>
+                  <c:v>83.0324097553764</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.4810942099818</c:v>
+                  <c:v>80.5772514917025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.2426096345486</c:v>
+                  <c:v>78.2177234303812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.0648761105223</c:v>
+                  <c:v>75.9501007053879</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.9462448929049</c:v>
+                  <c:v>73.7708035369418</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.8851119825916</c:v>
+                  <c:v>71.676391580292</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71.879916911996</c:v>
+                  <c:v>69.6635584946209</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69.9291415636319</c:v>
+                  <c:v>67.7291267234934</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.0313090207589</c:v>
+                  <c:v>65.8700424786121</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66.1849824492199</c:v>
+                  <c:v>64.0833709189573</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.3887640096255</c:v>
+                  <c:v>62.3662915177045</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62.6412937990604</c:v>
+                  <c:v>60.7160936096031</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>60.9412488215119</c:v>
+                  <c:v>59.1301721117881</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59.2873419862401</c:v>
+                  <c:v>57.606023411269</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>57.6783211333308</c:v>
+                  <c:v>56.141241412605</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.112968085696</c:v>
+                  <c:v>54.7335137395245</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.590097726801</c:v>
+                  <c:v>53.380618084496</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.108557103422</c:v>
+                  <c:v>52.0804187004846</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51.6672245527545</c:v>
+                  <c:v>50.8308630293579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50.2650088532107</c:v>
+                  <c:v>49.6299784616173</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48.9008483982648</c:v>
+                  <c:v>48.4758692223412</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.5737103927184</c:v>
+                  <c:v>47.3667133784213</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.28259007078</c:v>
+                  <c:v>46.300759962371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.0265099353639</c:v>
+                  <c:v>45.2763262081623</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43.8045190180355</c:v>
+                  <c:v>44.2917948947296</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42.6156921590403</c:v>
+                  <c:v>43.3456117929455</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41.4591293068724</c:v>
+                  <c:v>42.436283212039</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.3339548368531</c:v>
+                  <c:v>41.5623736415824</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39.239316888202</c:v>
+                  <c:v>40.7225034853246</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>38.1743867190997</c:v>
+                  <c:v>39.9153468832931</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.1383580792543</c:v>
+                  <c:v>39.139629618727</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36.1304465994953</c:v>
+                  <c:v>38.3941271065361</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.1498891979338</c:v>
+                  <c:v>37.6776624601114</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34.1959435022396</c:v>
+                  <c:v>36.9891046334344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="63093634"/>
-        <c:axId val="81280175"/>
+        <c:axId val="36292475"/>
+        <c:axId val="33531277"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63093634"/>
+        <c:axId val="36292475"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,12 +2454,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81280175"/>
+        <c:crossAx val="33531277"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81280175"/>
+        <c:axId val="33531277"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,7 +2524,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63093634"/>
+        <c:crossAx val="36292475"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2551,7 +2582,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2655,22 +2686,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10098.7146071093</c:v>
+                  <c:v>6906.47117718658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16218.7146071093</c:v>
+                  <c:v>13026.4711771866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35238.7146071093</c:v>
+                  <c:v>32046.4711771866</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63738.7146071093</c:v>
+                  <c:v>60546.4711771866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75138.7146071093</c:v>
+                  <c:v>71946.4711771866</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104718.714607109</c:v>
+                  <c:v>101526.471177187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2902,121 +2933,121 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.2860634344466</c:v>
+                  <c:v>96.8839417395563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.6457813857117</c:v>
+                  <c:v>93.8892562176435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.0771549169312</c:v>
+                  <c:v>91.0112158777056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.5782393411193</c:v>
+                  <c:v>88.2452773049571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.1471427488618</c:v>
+                  <c:v>85.5870740539273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.7820245759654</c:v>
+                  <c:v>83.0324097553764</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.4810942099818</c:v>
+                  <c:v>80.5772514917025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.2426096345486</c:v>
+                  <c:v>78.2177234303812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.0648761105223</c:v>
+                  <c:v>75.9501007053879</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.9462448929049</c:v>
+                  <c:v>73.7708035369418</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.8851119825916</c:v>
+                  <c:v>71.676391580292</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71.879916911996</c:v>
+                  <c:v>69.6635584946209</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69.9291415636319</c:v>
+                  <c:v>67.7291267234934</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.0313090207589</c:v>
+                  <c:v>65.8700424786121</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66.1849824492199</c:v>
+                  <c:v>64.0833709189573</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.3887640096255</c:v>
+                  <c:v>62.3662915177045</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62.6412937990604</c:v>
+                  <c:v>60.7160936096031</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>60.9412488215119</c:v>
+                  <c:v>59.1301721117881</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59.2873419862401</c:v>
+                  <c:v>57.606023411269</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>57.6783211333308</c:v>
+                  <c:v>56.141241412605</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.112968085696</c:v>
+                  <c:v>54.7335137395245</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.590097726801</c:v>
+                  <c:v>53.380618084496</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.108557103422</c:v>
+                  <c:v>52.0804187004846</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51.6672245527545</c:v>
+                  <c:v>50.8308630293579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50.2650088532107</c:v>
+                  <c:v>49.6299784616173</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48.9008483982648</c:v>
+                  <c:v>48.4758692223412</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.5737103927184</c:v>
+                  <c:v>47.3667133784213</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.28259007078</c:v>
+                  <c:v>46.300759962371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.0265099353639</c:v>
+                  <c:v>45.2763262081623</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43.8045190180355</c:v>
+                  <c:v>44.2917948947296</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42.6156921590403</c:v>
+                  <c:v>43.3456117929455</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41.4591293068724</c:v>
+                  <c:v>42.436283212039</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.3339548368531</c:v>
+                  <c:v>41.5623736415824</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39.239316888202</c:v>
+                  <c:v>40.7225034853246</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>38.1743867190997</c:v>
+                  <c:v>39.9153468832931</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.1383580792543</c:v>
+                  <c:v>39.139629618727</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36.1304465994953</c:v>
+                  <c:v>38.3941271065361</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.1498891979338</c:v>
+                  <c:v>37.6776624601114</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34.1959435022396</c:v>
+                  <c:v>36.9891046334344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3089,13 +3120,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>63236.6227172917</c:v>
+                  <c:v>59207.8271620103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66836.6227172917</c:v>
+                  <c:v>62807.8271620103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70436.6227172917</c:v>
+                  <c:v>66407.8271620103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3107,28 +3138,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>61.6508664</c:v>
+                  <c:v>61.589184</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.3491336</c:v>
+                  <c:v>58.410816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="83919652"/>
-        <c:axId val="43852538"/>
+        <c:axId val="23473231"/>
+        <c:axId val="65238240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83919652"/>
+        <c:axId val="23473231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="72500"/>
-          <c:min val="62500"/>
+          <c:max val="67500"/>
+          <c:min val="57500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3182,12 +3213,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43852538"/>
+        <c:crossAx val="65238240"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43852538"/>
+        <c:axId val="65238240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3252,7 +3283,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83919652"/>
+        <c:crossAx val="23473231"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3300,7 +3331,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3429,16 +3460,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6606.17468776603</c:v>
+                  <c:v>2880.23843264744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51306.174687766</c:v>
+                  <c:v>47580.2384326474</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89226.174687766</c:v>
+                  <c:v>85500.2384326475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131106.174687766</c:v>
+                  <c:v>127380.238432647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3664,132 +3695,132 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.6955710603644</c:v>
+                  <c:v>97.3156006429678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.444246048107</c:v>
+                  <c:v>94.7212762847861</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.2448012209574</c:v>
+                  <c:v>92.2140044595923</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.096041036916</c:v>
+                  <c:v>89.7908641203417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.9967975043989</c:v>
+                  <c:v>87.4490322356996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.9459295473586</c:v>
+                  <c:v>85.1857805011252</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.9423223850341</c:v>
+                  <c:v>82.9984721603144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.9848869259948</c:v>
+                  <c:v>80.8845589333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81.0725591761483</c:v>
+                  <c:v>78.8415780476282</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79.2042996603899</c:v>
+                  <c:v>76.8671493691556</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>77.3790928575801</c:v>
+                  <c:v>74.9589726291204</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.5959466485425</c:v>
+                  <c:v>73.1148247442609</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73.853891776782</c:v>
+                  <c:v>71.3325572268563</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.1519813216307</c:v>
+                  <c:v>69.6100936816739</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70.4892901835345</c:v>
+                  <c:v>67.9454273869065</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68.8649145812014</c:v>
+                  <c:v>66.3366189562809</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>67.2779715603369</c:v>
+                  <c:v>64.7817940796149</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65.7275985137006</c:v>
+                  <c:v>63.2791413391891</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>64.2129527122234</c:v>
+                  <c:v>61.8269100993913</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62.7332108469284</c:v>
+                  <c:v>60.4234084671732</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.2875685814091</c:v>
+                  <c:v>59.067001320944</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>59.8752401146201</c:v>
+                  <c:v>57.7561084056051</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>58.4954577537425</c:v>
+                  <c:v>56.4892024915045</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>57.1474714968929</c:v>
+                  <c:v>55.2648075951694</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.8305486254485</c:v>
+                  <c:v>54.0814972597402</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54.5439733057663</c:v>
+                  <c:v>52.9378928931059</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>53.2870462000811</c:v>
+                  <c:v>51.8326621618028</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>52.0590840863694</c:v>
+                  <c:v>50.7645174388058</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.8594194869739</c:v>
+                  <c:v>49.7322143034041</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49.6874003057854</c:v>
+                  <c:v>48.7345500914141</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>48.5423894737862</c:v>
+                  <c:v>47.770362494039</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>47.4237646027617</c:v>
+                  <c:v>46.8385282037447</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>46.3309176469909</c:v>
+                  <c:v>45.9379616055719</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45.2632545727349</c:v>
+                  <c:v>45.0676135123629</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44.2201950353399</c:v>
+                  <c:v>44.2264699424264</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43.2011720637822</c:v>
+                  <c:v>43.4135509382188</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42.2056317524826</c:v>
+                  <c:v>42.6279094246639</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.2330329602224</c:v>
+                  <c:v>41.868630105782</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.2828470159975</c:v>
+                  <c:v>41.1348283983428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="30412044"/>
-        <c:axId val="90758379"/>
+        <c:axId val="34396206"/>
+        <c:axId val="3689088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30412044"/>
+        <c:axId val="34396206"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,12 +3876,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90758379"/>
+        <c:crossAx val="3689088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90758379"/>
+        <c:axId val="3689088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,7 +3946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30412044"/>
+        <c:crossAx val="34396206"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3973,7 +4004,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4077,16 +4108,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6606.17468776603</c:v>
+                  <c:v>2880.23843264744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51306.174687766</c:v>
+                  <c:v>47580.2384326474</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89226.174687766</c:v>
+                  <c:v>85500.2384326475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131106.174687766</c:v>
+                  <c:v>127380.238432647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4312,121 +4343,121 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.6955710603644</c:v>
+                  <c:v>97.3156006429678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.444246048107</c:v>
+                  <c:v>94.7212762847861</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.2448012209574</c:v>
+                  <c:v>92.2140044595923</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.096041036916</c:v>
+                  <c:v>89.7908641203417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.9967975043989</c:v>
+                  <c:v>87.4490322356996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.9459295473586</c:v>
+                  <c:v>85.1857805011252</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.9423223850341</c:v>
+                  <c:v>82.9984721603144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.9848869259948</c:v>
+                  <c:v>80.8845589333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81.0725591761483</c:v>
+                  <c:v>78.8415780476282</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79.2042996603899</c:v>
+                  <c:v>76.8671493691556</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>77.3790928575801</c:v>
+                  <c:v>74.9589726291204</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.5959466485425</c:v>
+                  <c:v>73.1148247442609</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73.853891776782</c:v>
+                  <c:v>71.3325572268563</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.1519813216307</c:v>
+                  <c:v>69.6100936816739</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70.4892901835345</c:v>
+                  <c:v>67.9454273869065</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68.8649145812014</c:v>
+                  <c:v>66.3366189562809</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>67.2779715603369</c:v>
+                  <c:v>64.7817940796149</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65.7275985137006</c:v>
+                  <c:v>63.2791413391891</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>64.2129527122234</c:v>
+                  <c:v>61.8269100993913</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62.7332108469284</c:v>
+                  <c:v>60.4234084671732</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.2875685814091</c:v>
+                  <c:v>59.067001320944</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>59.8752401146201</c:v>
+                  <c:v>57.7561084056051</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>58.4954577537425</c:v>
+                  <c:v>56.4892024915045</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>57.1474714968929</c:v>
+                  <c:v>55.2648075951694</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.8305486254485</c:v>
+                  <c:v>54.0814972597402</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54.5439733057663</c:v>
+                  <c:v>52.9378928931059</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>53.2870462000811</c:v>
+                  <c:v>51.8326621618028</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>52.0590840863694</c:v>
+                  <c:v>50.7645174388058</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.8594194869739</c:v>
+                  <c:v>49.7322143034041</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49.6874003057854</c:v>
+                  <c:v>48.7345500914141</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>48.5423894737862</c:v>
+                  <c:v>47.770362494039</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>47.4237646027617</c:v>
+                  <c:v>46.8385282037447</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>46.3309176469909</c:v>
+                  <c:v>45.9379616055719</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45.2632545727349</c:v>
+                  <c:v>45.0676135123629</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44.2201950353399</c:v>
+                  <c:v>44.2264699424264</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43.2011720637822</c:v>
+                  <c:v>43.4135509382188</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42.2056317524826</c:v>
+                  <c:v>42.6279094246639</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.2330329602224</c:v>
+                  <c:v>41.868630105782</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.2828470159975</c:v>
+                  <c:v>41.1348283983428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4499,13 +4530,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>75278.5880029634</c:v>
+                  <c:v>69510.6215256039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78878.5880029634</c:v>
+                  <c:v>73110.6215256039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82478.5880029634</c:v>
+                  <c:v>76710.6215256039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4517,28 +4548,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>61.3988376</c:v>
+                  <c:v>61.3652352</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.6011624</c:v>
+                  <c:v>58.6347648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="56393722"/>
-        <c:axId val="36014330"/>
+        <c:axId val="48183070"/>
+        <c:axId val="45427968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56393722"/>
+        <c:axId val="48183070"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="82500"/>
-          <c:min val="75000"/>
+          <c:max val="77500"/>
+          <c:min val="67500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4592,12 +4623,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36014330"/>
+        <c:crossAx val="45427968"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36014330"/>
+        <c:axId val="45427968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4662,7 +4693,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56393722"/>
+        <c:crossAx val="48183070"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4710,7 +4741,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4871,55 +4902,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>51482.2929829346</c:v>
+                  <c:v>40750.8617969237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53222.2929829346</c:v>
+                  <c:v>42490.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54542.2929829346</c:v>
+                  <c:v>43810.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55202.2929829346</c:v>
+                  <c:v>44470.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57062.2929829346</c:v>
+                  <c:v>46330.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59882.2929829346</c:v>
+                  <c:v>49150.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63602.2929829346</c:v>
+                  <c:v>52870.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65762.2929829346</c:v>
+                  <c:v>55030.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69242.2929829346</c:v>
+                  <c:v>58510.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71822.2929829346</c:v>
+                  <c:v>61090.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80642.2929829346</c:v>
+                  <c:v>69910.8617979238</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87482.2929829346</c:v>
+                  <c:v>76750.8617969237</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>91742.2929829346</c:v>
+                  <c:v>81010.8617979238</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>96722.2929829346</c:v>
+                  <c:v>85990.8617969237</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>99362.2929829346</c:v>
+                  <c:v>88630.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>107162.292982935</c:v>
+                  <c:v>96430.8617969237</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>136742.292982935</c:v>
+                  <c:v>126010.861797924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5184,132 +5215,132 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.4491970186724</c:v>
+                  <c:v>96.7202611628967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.9634599958403</c:v>
+                  <c:v>93.5749809112884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.5411292270946</c:v>
+                  <c:v>90.5586468821148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.1805873438156</c:v>
+                  <c:v>87.6659727012057</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.8802582332708</c:v>
+                  <c:v>84.8918887184742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.6386059862582</c:v>
+                  <c:v>82.2315331229371</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.4541338715933</c:v>
+                  <c:v>79.6802434219899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.3253833367556</c:v>
+                  <c:v>77.2335482700039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.2509330340255</c:v>
+                  <c:v>74.8871596319245</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.2293978714637</c:v>
+                  <c:v>72.6369652681355</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.259428088097</c:v>
+                  <c:v>70.479021527421</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.3397083526957</c:v>
+                  <c:v>68.4095464353903</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71.4689568855382</c:v>
+                  <c:v>66.4249130662565</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69.6459246025782</c:v>
+                  <c:v>64.5216431863497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>67.8693942814424</c:v>
+                  <c:v>62.6964011582256</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.1381797487024</c:v>
+                  <c:v>60.9459880946859</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64.4511250878767</c:v>
+                  <c:v>59.2673362524645</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>62.807103867636</c:v>
+                  <c:v>57.6575036557544</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61.2050183896948</c:v>
+                  <c:v>56.1136689401527</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.6437989558884</c:v>
+                  <c:v>54.6331264079863</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>58.1224031539445</c:v>
+                  <c:v>53.2132812863541</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.6398151614745</c:v>
+                  <c:v>51.8516451795729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55.1950450677171</c:v>
+                  <c:v>50.5458317080594</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>53.7871282125847</c:v>
+                  <c:v>49.2935523260026</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52.4151245425676</c:v>
+                  <c:v>48.0926123104988</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>51.0781179830692</c:v>
+                  <c:v>46.9409069151184</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49.775215826751</c:v>
+                  <c:v>45.8364176811647</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>48.50554813748</c:v>
+                  <c:v>44.7772089001579</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>47.2682671694799</c:v>
+                  <c:v>43.7614242213471</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46.0625468012989</c:v>
+                  <c:v>42.7872833983016</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.8875819842159</c:v>
+                  <c:v>41.8530791688829</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43.7425882047167</c:v>
+                  <c:v>40.957174263127</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42.6268009606809</c:v>
+                  <c:v>40.097998533793</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41.5394752509313</c:v>
+                  <c:v>39.2740462045514</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.4798850778027</c:v>
+                  <c:v>38.4838732309865</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>39.4473229624001</c:v>
+                  <c:v>37.7260947697895</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.4410994722213</c:v>
+                  <c:v>36.9993827517063</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.4605427608288</c:v>
+                  <c:v>36.3024635539869</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>36.5049981192641</c:v>
+                  <c:v>35.634115768256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="7981214"/>
-        <c:axId val="88934720"/>
+        <c:axId val="86870534"/>
+        <c:axId val="12630789"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7981214"/>
+        <c:axId val="86870534"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5365,12 +5396,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88934720"/>
+        <c:crossAx val="12630789"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88934720"/>
+        <c:axId val="12630789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5435,7 +5466,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7981214"/>
+        <c:crossAx val="86870534"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5493,7 +5524,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5597,55 +5628,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>51482.2929829346</c:v>
+                  <c:v>40750.8617969237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53222.2929829346</c:v>
+                  <c:v>42490.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54542.2929829346</c:v>
+                  <c:v>43810.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55202.2929829346</c:v>
+                  <c:v>44470.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57062.2929829346</c:v>
+                  <c:v>46330.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59882.2929829346</c:v>
+                  <c:v>49150.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63602.2929829346</c:v>
+                  <c:v>52870.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65762.2929829346</c:v>
+                  <c:v>55030.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69242.2929829346</c:v>
+                  <c:v>58510.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71822.2929829346</c:v>
+                  <c:v>61090.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80642.2929829346</c:v>
+                  <c:v>69910.8617979238</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87482.2929829346</c:v>
+                  <c:v>76750.8617969237</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>91742.2929829346</c:v>
+                  <c:v>81010.8617979238</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>96722.2929829346</c:v>
+                  <c:v>85990.8617969237</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>99362.2929829346</c:v>
+                  <c:v>88630.8617979237</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>107162.292982935</c:v>
+                  <c:v>96430.8617969237</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>136742.292982935</c:v>
+                  <c:v>126010.861797924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5910,121 +5941,121 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.4491970186724</c:v>
+                  <c:v>96.7202611628967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.9634599958403</c:v>
+                  <c:v>93.5749809112884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.5411292270946</c:v>
+                  <c:v>90.5586468821148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.1805873438156</c:v>
+                  <c:v>87.6659727012057</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.8802582332708</c:v>
+                  <c:v>84.8918887184742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.6386059862582</c:v>
+                  <c:v>82.2315331229371</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.4541338715933</c:v>
+                  <c:v>79.6802434219899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.3253833367556</c:v>
+                  <c:v>77.2335482700039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.2509330340255</c:v>
+                  <c:v>74.8871596319245</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.2293978714637</c:v>
+                  <c:v>72.6369652681355</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.259428088097</c:v>
+                  <c:v>70.479021527421</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.3397083526957</c:v>
+                  <c:v>68.4095464353903</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71.4689568855382</c:v>
+                  <c:v>66.4249130662565</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69.6459246025782</c:v>
+                  <c:v>64.5216431863497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>67.8693942814424</c:v>
+                  <c:v>62.6964011582256</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.1381797487024</c:v>
+                  <c:v>60.9459880946859</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64.4511250878767</c:v>
+                  <c:v>59.2673362524645</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>62.807103867636</c:v>
+                  <c:v>57.6575036557544</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61.2050183896948</c:v>
+                  <c:v>56.1136689401527</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.6437989558884</c:v>
+                  <c:v>54.6331264079863</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>58.1224031539445</c:v>
+                  <c:v>53.2132812863541</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.6398151614745</c:v>
+                  <c:v>51.8516451795729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55.1950450677171</c:v>
+                  <c:v>50.5458317080594</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>53.7871282125847</c:v>
+                  <c:v>49.2935523260026</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52.4151245425676</c:v>
+                  <c:v>48.0926123104988</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>51.0781179830692</c:v>
+                  <c:v>46.9409069151184</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49.775215826751</c:v>
+                  <c:v>45.8364176811647</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>48.50554813748</c:v>
+                  <c:v>44.7772089001579</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>47.2682671694799</c:v>
+                  <c:v>43.7614242213471</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46.0625468012989</c:v>
+                  <c:v>42.7872833983016</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.8875819842159</c:v>
+                  <c:v>41.8530791688829</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43.7425882047167</c:v>
+                  <c:v>40.957174263127</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42.6268009606809</c:v>
+                  <c:v>40.097998533793</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41.5394752509313</c:v>
+                  <c:v>39.2740462045514</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.4798850778027</c:v>
+                  <c:v>38.4838732309865</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>39.4473229624001</c:v>
+                  <c:v>37.7260947697895</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.4410994722213</c:v>
+                  <c:v>36.9993827517063</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.4605427608288</c:v>
+                  <c:v>36.3024635539869</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>36.5049981192641</c:v>
+                  <c:v>35.634115768256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6036,7 +6067,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BarnyRunNewStopperOne!$S$57</c:f>
+              <c:f>BarnyRunNewStopperOne!$S$57:$S$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6097,13 +6128,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>67570.4108346906</c:v>
+                  <c:v>56010.1806467101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71170.4108346906</c:v>
+                  <c:v>59610.1806467101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74770.4108346906</c:v>
+                  <c:v>63210.1806467101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6115,24 +6146,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>61.55034</c:v>
+                  <c:v>61.674432</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.44966</c:v>
+                  <c:v>58.325568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65726374"/>
-        <c:axId val="79590257"/>
+        <c:axId val="45414188"/>
+        <c:axId val="59185309"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65726374"/>
+        <c:axId val="45414188"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="75000"/>
@@ -6190,12 +6221,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79590257"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="59185309"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79590257"/>
+        <c:axId val="59185309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6260,7 +6291,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65726374"/>
+        <c:crossAx val="45414188"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6308,7 +6339,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6351,7 +6382,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BarnyRunNewStopperOne!$K$71</c:f>
+              <c:f>BarnyRunNewStopperOne!$K$71:$K$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6538,121 +6569,121 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.3268036914556</c:v>
+                  <c:v>97.0313309596412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.7250671679514</c:v>
+                  <c:v>94.1728243676721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.1928801691516</c:v>
+                  <c:v>91.4203922759686</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.7283834997291</c:v>
+                  <c:v>88.7700984334692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.3297676642978</c:v>
+                  <c:v>86.2181526569458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.9952715388354</c:v>
+                  <c:v>83.7609054106654</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.723181077622</c:v>
+                  <c:v>81.3948425871918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.5118280547445</c:v>
+                  <c:v>79.116580481863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.3595888392435</c:v>
+                  <c:v>76.9228609537582</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76.2648832030023</c:v>
+                  <c:v>74.8105467662323</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.2261731605039</c:v>
+                  <c:v>72.7766171003566</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.2419618396036</c:v>
+                  <c:v>70.8181632348478</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70.3107923824873</c:v>
+                  <c:v>68.9323843863079</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.4312468760104</c:v>
+                  <c:v>67.1165837038257</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66.60194531063</c:v>
+                  <c:v>65.3681644122129</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.8215445671675</c:v>
+                  <c:v>63.6846260983574</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>63.0887374306565</c:v>
+                  <c:v>62.0635611353843</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>61.4022516305529</c:v>
+                  <c:v>60.5026512395111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59.7608489066019</c:v>
+                  <c:v>58.9996641546712</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.1633240996758</c:v>
+                  <c:v>57.5524504601667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.6085042669166</c:v>
+                  <c:v>56.1589404967828</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55.0952478205312</c:v>
+                  <c:v>54.8171414069706</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.6224436896094</c:v>
+                  <c:v>53.5251342848623</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.1890105043474</c:v>
+                  <c:v>52.2810714320455</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50.7938958020794</c:v>
+                  <c:v>51.0831737151714</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>49.4360752545323</c:v>
+                  <c:v>49.9297280216173</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.114551915739</c:v>
+                  <c:v>48.8190848095656</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.8283554900548</c:v>
+                  <c:v>47.7496557489952</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.5765416197426</c:v>
+                  <c:v>46.719911450212</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44.3581911916014</c:v>
+                  <c:v>45.7283792766698</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43.1724096621305</c:v>
+                  <c:v>44.7736412389541</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42.0183264007328</c:v>
+                  <c:v>43.8543319669161</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.8950940504762</c:v>
+                  <c:v>42.9691367570582</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39.8018879059432</c:v>
+                  <c:v>42.1167896923777</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>38.7379053077105</c:v>
+                  <c:v>41.296071831979</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.7023650530174</c:v>
+                  <c:v>40.5058094678684</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36.6945068221862</c:v>
+                  <c:v>39.7448724464339</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.713590620377</c:v>
+                  <c:v>39.0121725522143</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34.7588962342644</c:v>
+                  <c:v>38.3066619516429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6664,7 +6695,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BarnyRunNewStopperOne!$K$72</c:f>
+              <c:f>BarnyRunNewStopperOne!$K$72:$K$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6851,121 +6882,121 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.2860634344466</c:v>
+                  <c:v>96.8839417395563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.6457813857117</c:v>
+                  <c:v>93.8892562176435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.0771549169312</c:v>
+                  <c:v>91.0112158777056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.5782393411193</c:v>
+                  <c:v>88.2452773049571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.1471427488618</c:v>
+                  <c:v>85.5870740539273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.7820245759654</c:v>
+                  <c:v>83.0324097553764</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.4810942099818</c:v>
+                  <c:v>80.5772514917025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.2426096345486</c:v>
+                  <c:v>78.2177234303812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.0648761105223</c:v>
+                  <c:v>75.9501007053879</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.9462448929049</c:v>
+                  <c:v>73.7708035369418</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.8851119825916</c:v>
+                  <c:v>71.676391580292</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71.879916911996</c:v>
+                  <c:v>69.6635584946209</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69.9291415636319</c:v>
+                  <c:v>67.7291267234934</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.0313090207589</c:v>
+                  <c:v>65.8700424786121</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66.1849824492199</c:v>
+                  <c:v>64.0833709189573</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.3887640096255</c:v>
+                  <c:v>62.3662915177045</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62.6412937990604</c:v>
+                  <c:v>60.7160936096031</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>60.9412488215119</c:v>
+                  <c:v>59.1301721117881</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59.2873419862401</c:v>
+                  <c:v>57.606023411269</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>57.6783211333308</c:v>
+                  <c:v>56.141241412605</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.112968085696</c:v>
+                  <c:v>54.7335137395245</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.590097726801</c:v>
+                  <c:v>53.380618084496</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.108557103422</c:v>
+                  <c:v>52.0804187004846</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51.6672245527545</c:v>
+                  <c:v>50.8308630293579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50.2650088532107</c:v>
+                  <c:v>49.6299784616173</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48.9008483982648</c:v>
+                  <c:v>48.4758692223412</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.5737103927184</c:v>
+                  <c:v>47.3667133784213</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.28259007078</c:v>
+                  <c:v>46.300759962371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.0265099353639</c:v>
+                  <c:v>45.2763262081623</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43.8045190180355</c:v>
+                  <c:v>44.2917948947296</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42.6156921590403</c:v>
+                  <c:v>43.3456117929455</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41.4591293068724</c:v>
+                  <c:v>42.436283212039</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.3339548368531</c:v>
+                  <c:v>41.5623736415824</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39.239316888202</c:v>
+                  <c:v>40.7225034853246</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>38.1743867190997</c:v>
+                  <c:v>39.9153468832931</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.1383580792543</c:v>
+                  <c:v>39.139629618727</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36.1304465994953</c:v>
+                  <c:v>38.3941271065361</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.1498891979338</c:v>
+                  <c:v>37.6776624601114</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34.1959435022396</c:v>
+                  <c:v>36.9891046334344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6977,7 +7008,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BarnyRunNewStopperOne!$K$73</c:f>
+              <c:f>BarnyRunNewStopperOne!$K$73:$K$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7164,121 +7195,121 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.6955710603644</c:v>
+                  <c:v>97.3156006429678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.444246048107</c:v>
+                  <c:v>94.7212762847861</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.2448012209574</c:v>
+                  <c:v>92.2140044595923</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.096041036916</c:v>
+                  <c:v>89.7908641203417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.9967975043989</c:v>
+                  <c:v>87.4490322356996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.9459295473586</c:v>
+                  <c:v>85.1857805011252</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.9423223850341</c:v>
+                  <c:v>82.9984721603144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.9848869259948</c:v>
+                  <c:v>80.8845589333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81.0725591761483</c:v>
+                  <c:v>78.8415780476282</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79.2042996603899</c:v>
+                  <c:v>76.8671493691556</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>77.3790928575801</c:v>
+                  <c:v>74.9589726291204</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.5959466485425</c:v>
+                  <c:v>73.1148247442609</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73.853891776782</c:v>
+                  <c:v>71.3325572268563</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.1519813216307</c:v>
+                  <c:v>69.6100936816739</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70.4892901835345</c:v>
+                  <c:v>67.9454273869065</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68.8649145812014</c:v>
+                  <c:v>66.3366189562809</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>67.2779715603369</c:v>
+                  <c:v>64.7817940796149</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65.7275985137006</c:v>
+                  <c:v>63.2791413391891</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>64.2129527122234</c:v>
+                  <c:v>61.8269100993913</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62.7332108469284</c:v>
+                  <c:v>60.4234084671732</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.2875685814091</c:v>
+                  <c:v>59.067001320944</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>59.8752401146201</c:v>
+                  <c:v>57.7561084056051</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>58.4954577537425</c:v>
+                  <c:v>56.4892024915045</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>57.1474714968929</c:v>
+                  <c:v>55.2648075951694</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.8305486254485</c:v>
+                  <c:v>54.0814972597402</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54.5439733057663</c:v>
+                  <c:v>52.9378928931059</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>53.2870462000811</c:v>
+                  <c:v>51.8326621618028</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>52.0590840863694</c:v>
+                  <c:v>50.7645174388058</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.8594194869739</c:v>
+                  <c:v>49.7322143034041</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49.6874003057854</c:v>
+                  <c:v>48.7345500914141</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>48.5423894737862</c:v>
+                  <c:v>47.770362494039</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>47.4237646027617</c:v>
+                  <c:v>46.8385282037447</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>46.3309176469909</c:v>
+                  <c:v>45.9379616055719</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45.2632545727349</c:v>
+                  <c:v>45.0676135123629</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44.2201950353399</c:v>
+                  <c:v>44.2264699424264</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43.2011720637822</c:v>
+                  <c:v>43.4135509382188</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42.2056317524826</c:v>
+                  <c:v>42.6279094246639</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.2330329602224</c:v>
+                  <c:v>41.868630105782</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.2828470159975</c:v>
+                  <c:v>41.1348283983428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7290,7 +7321,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BarnyRunNewStopperOne!$K$74</c:f>
+              <c:f>BarnyRunNewStopperOne!$K$74:$K$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7477,132 +7508,132 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.4491970186724</c:v>
+                  <c:v>96.7202611628967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.9634599958403</c:v>
+                  <c:v>93.5749809112884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.5411292270946</c:v>
+                  <c:v>90.5586468821148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.1805873438156</c:v>
+                  <c:v>87.6659727012057</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.8802582332708</c:v>
+                  <c:v>84.8918887184742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.6386059862582</c:v>
+                  <c:v>82.2315331229371</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.4541338715933</c:v>
+                  <c:v>79.6802434219899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.3253833367556</c:v>
+                  <c:v>77.2335482700039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.2509330340255</c:v>
+                  <c:v>74.8871596319245</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.2293978714637</c:v>
+                  <c:v>72.6369652681355</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.259428088097</c:v>
+                  <c:v>70.479021527421</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.3397083526957</c:v>
+                  <c:v>68.4095464353903</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71.4689568855382</c:v>
+                  <c:v>66.4249130662565</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69.6459246025782</c:v>
+                  <c:v>64.5216431863497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>67.8693942814424</c:v>
+                  <c:v>62.6964011582256</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.1381797487024</c:v>
+                  <c:v>60.9459880946859</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64.4511250878767</c:v>
+                  <c:v>59.2673362524645</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>62.807103867636</c:v>
+                  <c:v>57.6575036557544</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61.2050183896948</c:v>
+                  <c:v>56.1136689401527</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.6437989558884</c:v>
+                  <c:v>54.6331264079863</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>58.1224031539445</c:v>
+                  <c:v>53.2132812863541</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.6398151614745</c:v>
+                  <c:v>51.8516451795729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55.1950450677171</c:v>
+                  <c:v>50.5458317080594</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>53.7871282125847</c:v>
+                  <c:v>49.2935523260026</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52.4151245425676</c:v>
+                  <c:v>48.0926123104988</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>51.0781179830692</c:v>
+                  <c:v>46.9409069151184</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49.775215826751</c:v>
+                  <c:v>45.8364176811647</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>48.50554813748</c:v>
+                  <c:v>44.7772089001579</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>47.2682671694799</c:v>
+                  <c:v>43.7614242213471</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46.0625468012989</c:v>
+                  <c:v>42.7872833983016</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.8875819842159</c:v>
+                  <c:v>41.8530791688829</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43.7425882047167</c:v>
+                  <c:v>40.957174263127</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42.6268009606809</c:v>
+                  <c:v>40.097998533793</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41.5394752509313</c:v>
+                  <c:v>39.2740462045514</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.4798850778027</c:v>
+                  <c:v>38.4838732309865</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>39.4473229624001</c:v>
+                  <c:v>37.7260947697895</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.4410994722213</c:v>
+                  <c:v>36.9993827517063</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.4605427608288</c:v>
+                  <c:v>36.3024635539869</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>36.5049981192641</c:v>
+                  <c:v>35.634115768256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1423245"/>
-        <c:axId val="40040284"/>
+        <c:axId val="84713161"/>
+        <c:axId val="50713874"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1423245"/>
+        <c:axId val="84713161"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140000"/>
@@ -7660,12 +7691,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40040284"/>
+        <c:crossAx val="50713874"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40040284"/>
+        <c:axId val="50713874"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7730,7 +7761,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1423245"/>
+        <c:crossAx val="84713161"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7978,15 +8009,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>368280</xdr:colOff>
+      <xdr:colOff>397440</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>749160</xdr:colOff>
+      <xdr:colOff>778320</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7994,7 +8025,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3046680" y="4768200"/>
+        <a:off x="3075840" y="4767840"/>
         <a:ext cx="6848280" cy="4006800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8075,8 +8106,8 @@
   </sheetPr>
   <dimension ref="B1:S62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I53" activeCellId="0" sqref="I53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P41" activeCellId="0" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8100,29 +8131,41 @@
       <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="P1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I2" s="9" t="n">
-        <f aca="false">1/0.0000075266</f>
-        <v>132862.11569633</v>
+        <f aca="false">1/0.000010504</f>
+        <v>95201.8278750952</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8141,7 +8184,11 @@
       </c>
       <c r="P3" s="15" t="n">
         <f aca="false">D3+F$49</f>
-        <v>1975.66134333278</v>
+        <v>923.159080242194</v>
+      </c>
+      <c r="Q3" s="14" t="n">
+        <f aca="false">E3-N$2</f>
+        <v>78.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8160,11 +8207,15 @@
         <v>70</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P4" s="15" t="n">
         <f aca="false">D4+F$49</f>
-        <v>46795.6613433328</v>
+        <v>45743.1590802422</v>
+      </c>
+      <c r="Q4" s="14" t="n">
+        <f aca="false">E4-N$2</f>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8183,7 +8234,7 @@
         <v>59</v>
       </c>
       <c r="H5" s="17" t="n">
-        <f aca="false">E$3*EXP(-D3/I$2)</f>
+        <f aca="false">Q$3*EXP(-D3/I$2)+N$2</f>
         <v>98.5</v>
       </c>
       <c r="I5" s="17" t="n">
@@ -8196,11 +8247,15 @@
       </c>
       <c r="K5" s="18" t="n">
         <f aca="false">SQRT(AVERAGE(J6:J8))</f>
-        <v>0.589843260239805</v>
+        <v>1.03579566586403</v>
       </c>
       <c r="P5" s="15" t="n">
         <f aca="false">D5+F$49</f>
-        <v>71995.6613433328</v>
+        <v>70943.1590802422</v>
+      </c>
+      <c r="Q5" s="14" t="n">
+        <f aca="false">E5-N$2</f>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8219,58 +8274,60 @@
         <v>52</v>
       </c>
       <c r="H6" s="17" t="n">
-        <f aca="false">E$3*EXP(-D4/I$2)</f>
-        <v>70.2959604925696</v>
+        <f aca="false">Q$3*EXP(-D4/I$2)+N$2</f>
+        <v>69.0239691477474</v>
       </c>
       <c r="I6" s="17" t="n">
         <f aca="false">H6-E4</f>
-        <v>0.295960492569591</v>
+        <v>-0.97603085225262</v>
       </c>
       <c r="J6" s="17" t="n">
         <f aca="false">I6^2</f>
-        <v>0.0875926131620351</v>
+        <v>0.952636224548976</v>
       </c>
       <c r="K6" s="17"/>
       <c r="P6" s="15" t="n">
         <f aca="false">D6+F$49</f>
-        <v>85615.6613433328</v>
+        <v>84563.1590802422</v>
+      </c>
+      <c r="Q6" s="14" t="n">
+        <f aca="false">E6-N$2</f>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="17" t="n">
-        <f aca="false">E$3*EXP(-D5/I$2)</f>
-        <v>58.151054688522</v>
+        <f aca="false">Q$3*EXP(-D5/I$2)+N$2</f>
+        <v>57.6227358603162</v>
       </c>
       <c r="I7" s="17" t="n">
         <f aca="false">H7-E5</f>
-        <v>-0.848945311478026</v>
+        <v>-1.37726413968377</v>
       </c>
       <c r="J7" s="17" t="n">
         <f aca="false">I7^2</f>
-        <v>0.720708141880523</v>
+        <v>1.89685651045889</v>
       </c>
       <c r="K7" s="17"/>
-      <c r="P7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="17" t="n">
-        <f aca="false">E$3*EXP(-D6/I$2)</f>
-        <v>52.4852261945819</v>
+        <f aca="false">Q$3*EXP(-D6/I$2)+N$2</f>
+        <v>52.6075567868605</v>
       </c>
       <c r="I8" s="17" t="n">
         <f aca="false">H8-E6</f>
-        <v>0.485226194581877</v>
+        <v>0.607556786860506</v>
       </c>
       <c r="J8" s="17" t="n">
         <f aca="false">I8^2</f>
-        <v>0.235444459908409</v>
+        <v>0.369125249260263</v>
       </c>
       <c r="K8" s="17"/>
-      <c r="P8" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>100</v>
@@ -8281,15 +8338,15 @@
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8297,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="20" t="n">
-        <f aca="false">C17</f>
+        <f aca="false">(C$17-N$2)*EXP(-B23/I$2)+N$2</f>
         <v>100</v>
       </c>
     </row>
@@ -8307,8 +8364,8 @@
         <v>3600</v>
       </c>
       <c r="C24" s="20" t="n">
-        <f aca="false">C$23*EXP(-B24/I$2)</f>
-        <v>97.3268036914556</v>
+        <f aca="false">(C$17-N$2)*EXP(-B24/I$2)+N$2</f>
+        <v>97.0313309596412</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8317,8 +8374,8 @@
         <v>7200</v>
       </c>
       <c r="C25" s="20" t="n">
-        <f aca="false">C$23*EXP(-B25/I$2)</f>
-        <v>94.7250671679514</v>
+        <f aca="false">(C$17-N$2)*EXP(-B25/I$2)+N$2</f>
+        <v>94.1728243676721</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8327,8 +8384,8 @@
         <v>10800</v>
       </c>
       <c r="C26" s="20" t="n">
-        <f aca="false">C$23*EXP(-B26/I$2)</f>
-        <v>92.1928801691516</v>
+        <f aca="false">(C$17-N$2)*EXP(-B26/I$2)+N$2</f>
+        <v>91.4203922759686</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8337,8 +8394,8 @@
         <v>14400</v>
       </c>
       <c r="C27" s="20" t="n">
-        <f aca="false">C$23*EXP(-B27/I$2)</f>
-        <v>89.7283834997291</v>
+        <f aca="false">(C$17-N$2)*EXP(-B27/I$2)+N$2</f>
+        <v>88.7700984334692</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8347,8 +8404,8 @@
         <v>18000</v>
       </c>
       <c r="C28" s="20" t="n">
-        <f aca="false">C$23*EXP(-B28/I$2)</f>
-        <v>87.3297676642978</v>
+        <f aca="false">(C$17-N$2)*EXP(-B28/I$2)+N$2</f>
+        <v>86.2181526569458</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,8 +8414,8 @@
         <v>21600</v>
       </c>
       <c r="C29" s="20" t="n">
-        <f aca="false">C$23*EXP(-B29/I$2)</f>
-        <v>84.9952715388354</v>
+        <f aca="false">(C$17-N$2)*EXP(-B29/I$2)+N$2</f>
+        <v>83.7609054106654</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8367,8 +8424,8 @@
         <v>25200</v>
       </c>
       <c r="C30" s="20" t="n">
-        <f aca="false">C$23*EXP(-B30/I$2)</f>
-        <v>82.723181077622</v>
+        <f aca="false">(C$17-N$2)*EXP(-B30/I$2)+N$2</f>
+        <v>81.3948425871918</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8377,8 +8434,8 @@
         <v>28800</v>
       </c>
       <c r="C31" s="20" t="n">
-        <f aca="false">C$23*EXP(-B31/I$2)</f>
-        <v>80.5118280547445</v>
+        <f aca="false">(C$17-N$2)*EXP(-B31/I$2)+N$2</f>
+        <v>79.116580481863</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8387,8 +8444,8 @@
         <v>32400</v>
       </c>
       <c r="C32" s="20" t="n">
-        <f aca="false">C$23*EXP(-B32/I$2)</f>
-        <v>78.3595888392435</v>
+        <f aca="false">(C$17-N$2)*EXP(-B32/I$2)+N$2</f>
+        <v>76.9228609537582</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8397,8 +8454,8 @@
         <v>36000</v>
       </c>
       <c r="C33" s="20" t="n">
-        <f aca="false">C$23*EXP(-B33/I$2)</f>
-        <v>76.2648832030023</v>
+        <f aca="false">(C$17-N$2)*EXP(-B33/I$2)+N$2</f>
+        <v>74.8105467662323</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8407,8 +8464,8 @@
         <v>39600</v>
       </c>
       <c r="C34" s="20" t="n">
-        <f aca="false">C$23*EXP(-B34/I$2)</f>
-        <v>74.2261731605039</v>
+        <f aca="false">(C$17-N$2)*EXP(-B34/I$2)+N$2</f>
+        <v>72.7766171003566</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8417,8 +8474,8 @@
         <v>43200</v>
       </c>
       <c r="C35" s="20" t="n">
-        <f aca="false">C$23*EXP(-B35/I$2)</f>
-        <v>72.2419618396036</v>
+        <f aca="false">(C$17-N$2)*EXP(-B35/I$2)+N$2</f>
+        <v>70.8181632348478</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8427,8 +8484,8 @@
         <v>46800</v>
       </c>
       <c r="C36" s="20" t="n">
-        <f aca="false">C$23*EXP(-B36/I$2)</f>
-        <v>70.3107923824873</v>
+        <f aca="false">(C$17-N$2)*EXP(-B36/I$2)+N$2</f>
+        <v>68.9323843863079</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8437,8 +8494,8 @@
         <v>50400</v>
       </c>
       <c r="C37" s="20" t="n">
-        <f aca="false">C$23*EXP(-B37/I$2)</f>
-        <v>68.4312468760104</v>
+        <f aca="false">(C$17-N$2)*EXP(-B37/I$2)+N$2</f>
+        <v>67.1165837038257</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8447,8 +8504,8 @@
         <v>54000</v>
       </c>
       <c r="C38" s="20" t="n">
-        <f aca="false">C$23*EXP(-B38/I$2)</f>
-        <v>66.60194531063</v>
+        <f aca="false">(C$17-N$2)*EXP(-B38/I$2)+N$2</f>
+        <v>65.3681644122129</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8457,8 +8514,8 @@
         <v>57600</v>
       </c>
       <c r="C39" s="20" t="n">
-        <f aca="false">C$23*EXP(-B39/I$2)</f>
-        <v>64.8215445671675</v>
+        <f aca="false">(C$17-N$2)*EXP(-B39/I$2)+N$2</f>
+        <v>63.6846260983574</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8467,26 +8524,26 @@
         <v>61200</v>
       </c>
       <c r="C40" s="20" t="n">
-        <f aca="false">C$23*EXP(-B40/I$2)</f>
-        <v>63.0887374306565</v>
+        <f aca="false">(C$17-N$2)*EXP(-B40/I$2)+N$2</f>
+        <v>62.0635611353843</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>4200</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8495,23 +8552,23 @@
         <v>64800</v>
       </c>
       <c r="C41" s="20" t="n">
-        <f aca="false">C$23*EXP(-B41/I$2)</f>
-        <v>61.4022516305529</v>
+        <f aca="false">(C$17-N$2)*EXP(-B41/I$2)+N$2</f>
+        <v>60.5026512395111</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>60</v>
       </c>
       <c r="F41" s="9" t="n">
-        <f aca="false">-LN(E41/C23)*I2</f>
-        <v>67869.373125447</v>
+        <f aca="false">-LN((E41-N$2)/(C$17-N$2))*I$2</f>
+        <v>65988.8785757755</v>
       </c>
       <c r="P41" s="0" t="n">
         <f aca="false">P42-60*60</f>
-        <v>64269.373125447</v>
+        <v>62388.8785757755</v>
       </c>
       <c r="Q41" s="0" t="n">
         <f aca="false">C$23*EXP(-P41/I2)</f>
-        <v>61.6479712928941</v>
+        <v>51.9269231125672</v>
       </c>
       <c r="R41" s="0" t="n">
         <f aca="false">P41-P42</f>
@@ -8519,7 +8576,7 @@
       </c>
       <c r="S41" s="0" t="n">
         <f aca="false">R41*F44+E41</f>
-        <v>61.6257456</v>
+        <v>61.512576</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8528,22 +8585,22 @@
         <v>68400</v>
       </c>
       <c r="C42" s="20" t="n">
-        <f aca="false">C$23*EXP(-B42/I$2)</f>
-        <v>59.7608489066019</v>
+        <f aca="false">(C$17-N$2)*EXP(-B42/I$2)+N$2</f>
+        <v>58.9996641546712</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>1.6</v>
       </c>
       <c r="P42" s="9" t="n">
         <f aca="false">F41</f>
-        <v>67869.373125447</v>
+        <v>65988.8785757755</v>
       </c>
       <c r="Q42" s="0" t="n">
         <f aca="false">C$23*EXP(-P42/I$2)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R42" s="0" t="n">
         <f aca="false">P42-P42</f>
@@ -8560,20 +8617,20 @@
         <v>72000</v>
       </c>
       <c r="C43" s="20" t="n">
-        <f aca="false">C$23*EXP(-B43/I$2)</f>
-        <v>58.1633240996758</v>
+        <f aca="false">(C$17-N$2)*EXP(-B43/I$2)+N$2</f>
+        <v>57.5524504601667</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H43" s="21"/>
       <c r="P43" s="0" t="n">
         <f aca="false">P42+60*60</f>
-        <v>71469.373125447</v>
+        <v>69588.8785757755</v>
       </c>
       <c r="Q43" s="0" t="n">
         <f aca="false">C$23*EXP(-P43/I$2)</f>
-        <v>58.3960822148734</v>
+        <v>48.1445818497757</v>
       </c>
       <c r="R43" s="0" t="n">
         <f aca="false">P43-P42</f>
@@ -8581,7 +8638,7 @@
       </c>
       <c r="S43" s="0" t="n">
         <f aca="false">R43*F44+E41</f>
-        <v>58.3742544</v>
+        <v>58.487424</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8590,19 +8647,19 @@
         <v>75600</v>
       </c>
       <c r="C44" s="20" t="n">
-        <f aca="false">C$23*EXP(-B44/I$2)</f>
-        <v>56.6085042669166</v>
+        <f aca="false">(C$17-N$2)*EXP(-B44/I$2)+N$2</f>
+        <v>56.1589404967828</v>
       </c>
       <c r="F44" s="17" t="n">
-        <f aca="false">-C23/I2*EXP(-F41/I2)</f>
-        <v>-0.000451596000000001</v>
+        <f aca="false">-(C17-N$2)/I2*EXP(-F41/I2)</f>
+        <v>-0.00042016</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I44" s="18" t="n">
         <f aca="false">-(I42*I40*F44)</f>
-        <v>3.03472512000001</v>
+        <v>2.8234752</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8611,15 +8668,15 @@
         <v>79200</v>
       </c>
       <c r="C45" s="20" t="n">
-        <f aca="false">C$23*EXP(-B45/I$2)</f>
-        <v>55.0952478205312</v>
+        <f aca="false">(C$17-N$2)*EXP(-B45/I$2)+N$2</f>
+        <v>54.8171414069706</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" s="23" t="n">
         <f aca="false">I44/1000</f>
-        <v>0.00303472512000001</v>
+        <v>0.0028234752</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8628,8 +8685,8 @@
         <v>82800</v>
       </c>
       <c r="C46" s="20" t="n">
-        <f aca="false">C$23*EXP(-B46/I$2)</f>
-        <v>53.6224436896094</v>
+        <f aca="false">(C$17-N$2)*EXP(-B46/I$2)+N$2</f>
+        <v>53.5251342848623</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8638,8 +8695,8 @@
         <v>86400</v>
       </c>
       <c r="C47" s="20" t="n">
-        <f aca="false">C$23*EXP(-B47/I$2)</f>
-        <v>52.1890105043474</v>
+        <f aca="false">(C$17-N$2)*EXP(-B47/I$2)+N$2</f>
+        <v>52.2810714320455</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8648,14 +8705,14 @@
         <v>90000</v>
       </c>
       <c r="C48" s="20" t="n">
-        <f aca="false">C$23*EXP(-B48/I$2)</f>
-        <v>50.7938958020794</v>
+        <f aca="false">(C$17-N$2)*EXP(-B48/I$2)+N$2</f>
+        <v>51.0831737151714</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8664,15 +8721,15 @@
         <v>93600</v>
       </c>
       <c r="C49" s="20" t="n">
-        <f aca="false">C$23*EXP(-B49/I$2)</f>
-        <v>49.4360752545323</v>
+        <f aca="false">(C$17-N$2)*EXP(-B49/I$2)+N$2</f>
+        <v>49.9297280216173</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>98.524</v>
+        <v>99.228</v>
       </c>
       <c r="F49" s="9" t="n">
-        <f aca="false">-LN(E49/C23)*I$2</f>
-        <v>1975.66134333278</v>
+        <f aca="false">-LN((E49-N$2)/(C$17-N$2))*I$2</f>
+        <v>923.159080242194</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8681,8 +8738,8 @@
         <v>97200</v>
       </c>
       <c r="C50" s="20" t="n">
-        <f aca="false">C$23*EXP(-B50/I$2)</f>
-        <v>48.114551915739</v>
+        <f aca="false">(C$17-N$2)*EXP(-B50/I$2)+N$2</f>
+        <v>48.8190848095656</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8691,8 +8748,8 @@
         <v>100800</v>
       </c>
       <c r="C51" s="20" t="n">
-        <f aca="false">C$23*EXP(-B51/I$2)</f>
-        <v>46.8283554900548</v>
+        <f aca="false">(C$17-N$2)*EXP(-B51/I$2)+N$2</f>
+        <v>47.7496557489952</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8701,8 +8758,8 @@
         <v>104400</v>
       </c>
       <c r="C52" s="20" t="n">
-        <f aca="false">C$23*EXP(-B52/I$2)</f>
-        <v>45.5765416197426</v>
+        <f aca="false">(C$17-N$2)*EXP(-B52/I$2)+N$2</f>
+        <v>46.719911450212</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8711,8 +8768,8 @@
         <v>108000</v>
       </c>
       <c r="C53" s="20" t="n">
-        <f aca="false">C$23*EXP(-B53/I$2)</f>
-        <v>44.3581911916014</v>
+        <f aca="false">(C$17-N$2)*EXP(-B53/I$2)+N$2</f>
+        <v>45.7283792766698</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8721,8 +8778,8 @@
         <v>111600</v>
       </c>
       <c r="C54" s="20" t="n">
-        <f aca="false">C$23*EXP(-B54/I$2)</f>
-        <v>43.1724096621305</v>
+        <f aca="false">(C$17-N$2)*EXP(-B54/I$2)+N$2</f>
+        <v>44.7736412389541</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8731,8 +8788,8 @@
         <v>115200</v>
       </c>
       <c r="C55" s="20" t="n">
-        <f aca="false">C$23*EXP(-B55/I$2)</f>
-        <v>42.0183264007328</v>
+        <f aca="false">(C$17-N$2)*EXP(-B55/I$2)+N$2</f>
+        <v>43.8543319669161</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8741,8 +8798,8 @@
         <v>118800</v>
       </c>
       <c r="C56" s="20" t="n">
-        <f aca="false">C$23*EXP(-B56/I$2)</f>
-        <v>40.8950940504762</v>
+        <f aca="false">(C$17-N$2)*EXP(-B56/I$2)+N$2</f>
+        <v>42.9691367570582</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8751,8 +8808,8 @@
         <v>122400</v>
       </c>
       <c r="C57" s="20" t="n">
-        <f aca="false">C$23*EXP(-B57/I$2)</f>
-        <v>39.8018879059432</v>
+        <f aca="false">(C$17-N$2)*EXP(-B57/I$2)+N$2</f>
+        <v>42.1167896923777</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8761,8 +8818,8 @@
         <v>126000</v>
       </c>
       <c r="C58" s="20" t="n">
-        <f aca="false">C$23*EXP(-B58/I$2)</f>
-        <v>38.7379053077105</v>
+        <f aca="false">(C$17-N$2)*EXP(-B58/I$2)+N$2</f>
+        <v>41.296071831979</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8771,8 +8828,8 @@
         <v>129600</v>
       </c>
       <c r="C59" s="20" t="n">
-        <f aca="false">C$23*EXP(-B59/I$2)</f>
-        <v>37.7023650530174</v>
+        <f aca="false">(C$17-N$2)*EXP(-B59/I$2)+N$2</f>
+        <v>40.5058094678684</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8781,8 +8838,8 @@
         <v>133200</v>
       </c>
       <c r="C60" s="20" t="n">
-        <f aca="false">C$23*EXP(-B60/I$2)</f>
-        <v>36.6945068221862</v>
+        <f aca="false">(C$17-N$2)*EXP(-B60/I$2)+N$2</f>
+        <v>39.7448724464339</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8791,8 +8848,8 @@
         <v>136800</v>
       </c>
       <c r="C61" s="20" t="n">
-        <f aca="false">C$23*EXP(-B61/I$2)</f>
-        <v>35.713590620377</v>
+        <f aca="false">(C$17-N$2)*EXP(-B61/I$2)+N$2</f>
+        <v>39.0121725522143</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8801,8 +8858,8 @@
         <v>140400</v>
       </c>
       <c r="C62" s="20" t="n">
-        <f aca="false">C$23*EXP(-B62/I$2)</f>
-        <v>34.7588962342644</v>
+        <f aca="false">(C$17-N$2)*EXP(-B62/I$2)+N$2</f>
+        <v>38.3066619516429</v>
       </c>
     </row>
   </sheetData>
@@ -8824,8 +8881,8 @@
   </sheetPr>
   <dimension ref="B1:S62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M42" activeCellId="0" sqref="M42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L51" activeCellId="0" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8849,29 +8906,41 @@
       <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="P1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I2" s="9" t="n">
-        <f aca="false">1/0.0000076429</f>
-        <v>130840.387810909</v>
+        <f aca="false">1/0.000011036</f>
+        <v>90612.5407756433</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8890,7 +8959,11 @@
       </c>
       <c r="P3" s="15" t="n">
         <f aca="false">D3+F$49</f>
-        <v>10098.7146071093</v>
+        <v>6906.47117718658</v>
+      </c>
+      <c r="Q3" s="14" t="n">
+        <f aca="false">E3-N$2</f>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8909,11 +8982,15 @@
         <v>89</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P4" s="15" t="n">
         <f aca="false">D4+F$49</f>
-        <v>16218.7146071093</v>
+        <v>13026.4711771866</v>
+      </c>
+      <c r="Q4" s="14" t="n">
+        <f aca="false">E4-N$2</f>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8932,7 +9009,7 @@
         <v>74.5</v>
       </c>
       <c r="H5" s="17" t="n">
-        <f aca="false">E$3*EXP(-D3/I$2)</f>
+        <f aca="false">Q$3*EXP(-D3/I$2)+N$2</f>
         <v>96</v>
       </c>
       <c r="I5" s="17" t="n">
@@ -8945,11 +9022,15 @@
       </c>
       <c r="K5" s="18" t="n">
         <f aca="false">SQRT(AVERAGE(J6:J10))</f>
-        <v>3.54992192926492</v>
+        <v>2.33756808095978</v>
       </c>
       <c r="P5" s="15" t="n">
         <f aca="false">D5+F$49</f>
-        <v>35238.7146071093</v>
+        <v>32046.4711771866</v>
+      </c>
+      <c r="Q5" s="14" t="n">
+        <f aca="false">E5-N$2</f>
+        <v>54.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8968,21 +9049,25 @@
         <v>59</v>
       </c>
       <c r="H6" s="17" t="n">
-        <f aca="false">E$3*EXP(-D4/I$2)</f>
-        <v>91.6130421841556</v>
+        <f aca="false">Q$3*EXP(-D4/I$2)+N$2</f>
+        <v>91.0364425197129</v>
       </c>
       <c r="I6" s="17" t="n">
         <f aca="false">H6-E4</f>
-        <v>2.61304218415556</v>
+        <v>2.03644251971286</v>
       </c>
       <c r="J6" s="17" t="n">
         <f aca="false">I6^2</f>
-        <v>6.82798945617646</v>
+        <v>4.14709813609448</v>
       </c>
       <c r="K6" s="17"/>
       <c r="P6" s="15" t="n">
         <f aca="false">D6+F$49</f>
-        <v>63738.7146071093</v>
+        <v>60546.4711771866</v>
+      </c>
+      <c r="Q6" s="14" t="n">
+        <f aca="false">E6-N$2</f>
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9001,21 +9086,25 @@
         <v>55</v>
       </c>
       <c r="H7" s="17" t="n">
-        <f aca="false">E$3*EXP(-D5/I$2)</f>
-        <v>79.2181695063199</v>
+        <f aca="false">Q$3*EXP(-D5/I$2)+N$2</f>
+        <v>77.5865077773221</v>
       </c>
       <c r="I7" s="17" t="n">
         <f aca="false">H7-E5</f>
-        <v>4.71816950631992</v>
+        <v>3.08650777732214</v>
       </c>
       <c r="J7" s="17" t="n">
         <f aca="false">I7^2</f>
-        <v>22.2611234903672</v>
+        <v>9.52653025947006</v>
       </c>
       <c r="K7" s="17"/>
       <c r="P7" s="15" t="n">
         <f aca="false">D7+F$49</f>
-        <v>75138.7146071093</v>
+        <v>71946.4711771866</v>
+      </c>
+      <c r="Q7" s="14" t="n">
+        <f aca="false">E7-N$2</f>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9034,54 +9123,58 @@
         <v>47</v>
       </c>
       <c r="H8" s="17" t="n">
-        <f aca="false">E$3*EXP(-D6/I$2)</f>
-        <v>63.712643977777</v>
+        <f aca="false">Q$3*EXP(-D6/I$2)+N$2</f>
+        <v>62.0459177262924</v>
       </c>
       <c r="I8" s="17" t="n">
         <f aca="false">H8-E6</f>
-        <v>4.71264397777696</v>
+        <v>3.04591772629237</v>
       </c>
       <c r="J8" s="17" t="n">
         <f aca="false">I8^2</f>
-        <v>22.2090132612775</v>
+        <v>9.27761479534206</v>
       </c>
       <c r="K8" s="17"/>
       <c r="P8" s="15" t="n">
         <f aca="false">D8+F$49</f>
-        <v>104718.714607109</v>
+        <v>101526.471177187</v>
+      </c>
+      <c r="Q8" s="14" t="n">
+        <f aca="false">E8-N$2</f>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H9" s="17" t="n">
-        <f aca="false">E$3*EXP(-D7/I$2)</f>
-        <v>58.3963843129381</v>
+        <f aca="false">Q$3*EXP(-D7/I$2)+N$2</f>
+        <v>57.0753341311317</v>
       </c>
       <c r="I9" s="17" t="n">
         <f aca="false">H9-E7</f>
-        <v>3.39638431293808</v>
+        <v>2.07533413113171</v>
       </c>
       <c r="J9" s="17" t="n">
         <f aca="false">I9^2</f>
-        <v>11.5354264011719</v>
+        <v>4.30701175584022</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H10" s="17" t="n">
-        <f aca="false">E$3*EXP(-D8/I$2)</f>
-        <v>46.5802668581267</v>
+        <f aca="false">Q$3*EXP(-D8/I$2)+N$2</f>
+        <v>46.7492656408407</v>
       </c>
       <c r="I10" s="17" t="n">
         <f aca="false">H10-E8</f>
-        <v>-0.41973314187333</v>
+        <v>-0.250734359159317</v>
       </c>
       <c r="J10" s="17" t="n">
         <f aca="false">I10^2</f>
-        <v>0.176175910386857</v>
+        <v>0.0628677188630334</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>100</v>
@@ -9092,15 +9185,15 @@
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9108,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="20" t="n">
-        <f aca="false">C17</f>
+        <f aca="false">(C$17-N$2)*EXP(-B23/I$2)+N$2</f>
         <v>100</v>
       </c>
     </row>
@@ -9118,8 +9211,8 @@
         <v>3600</v>
       </c>
       <c r="C24" s="20" t="n">
-        <f aca="false">C$23*EXP(-B24/I$2)</f>
-        <v>97.2860634344466</v>
+        <f aca="false">(C$17-N$2)*EXP(-B24/I$2)+N$2</f>
+        <v>96.8839417395563</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9128,8 +9221,8 @@
         <v>7200</v>
       </c>
       <c r="C25" s="20" t="n">
-        <f aca="false">C$23*EXP(-B25/I$2)</f>
-        <v>94.6457813857117</v>
+        <f aca="false">(C$17-N$2)*EXP(-B25/I$2)+N$2</f>
+        <v>93.8892562176435</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9138,8 +9231,8 @@
         <v>10800</v>
       </c>
       <c r="C26" s="20" t="n">
-        <f aca="false">C$23*EXP(-B26/I$2)</f>
-        <v>92.0771549169312</v>
+        <f aca="false">(C$17-N$2)*EXP(-B26/I$2)+N$2</f>
+        <v>91.0112158777056</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9148,8 +9241,8 @@
         <v>14400</v>
       </c>
       <c r="C27" s="20" t="n">
-        <f aca="false">C$23*EXP(-B27/I$2)</f>
-        <v>89.5782393411193</v>
+        <f aca="false">(C$17-N$2)*EXP(-B27/I$2)+N$2</f>
+        <v>88.2452773049571</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9158,8 +9251,8 @@
         <v>18000</v>
       </c>
       <c r="C28" s="20" t="n">
-        <f aca="false">C$23*EXP(-B28/I$2)</f>
-        <v>87.1471427488618</v>
+        <f aca="false">(C$17-N$2)*EXP(-B28/I$2)+N$2</f>
+        <v>85.5870740539273</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9168,8 +9261,8 @@
         <v>21600</v>
       </c>
       <c r="C29" s="20" t="n">
-        <f aca="false">C$23*EXP(-B29/I$2)</f>
-        <v>84.7820245759654</v>
+        <f aca="false">(C$17-N$2)*EXP(-B29/I$2)+N$2</f>
+        <v>83.0324097553764</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9178,8 +9271,8 @@
         <v>25200</v>
       </c>
       <c r="C30" s="20" t="n">
-        <f aca="false">C$23*EXP(-B30/I$2)</f>
-        <v>82.4810942099818</v>
+        <f aca="false">(C$17-N$2)*EXP(-B30/I$2)+N$2</f>
+        <v>80.5772514917025</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9188,8 +9281,8 @@
         <v>28800</v>
       </c>
       <c r="C31" s="20" t="n">
-        <f aca="false">C$23*EXP(-B31/I$2)</f>
-        <v>80.2426096345486</v>
+        <f aca="false">(C$17-N$2)*EXP(-B31/I$2)+N$2</f>
+        <v>78.2177234303812</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9198,8 +9291,8 @@
         <v>32400</v>
       </c>
       <c r="C32" s="20" t="n">
-        <f aca="false">C$23*EXP(-B32/I$2)</f>
-        <v>78.0648761105223</v>
+        <f aca="false">(C$17-N$2)*EXP(-B32/I$2)+N$2</f>
+        <v>75.9501007053879</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9208,8 +9301,8 @@
         <v>36000</v>
       </c>
       <c r="C33" s="20" t="n">
-        <f aca="false">C$23*EXP(-B33/I$2)</f>
-        <v>75.9462448929049</v>
+        <f aca="false">(C$17-N$2)*EXP(-B33/I$2)+N$2</f>
+        <v>73.7708035369418</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9218,8 +9311,8 @@
         <v>39600</v>
       </c>
       <c r="C34" s="20" t="n">
-        <f aca="false">C$23*EXP(-B34/I$2)</f>
-        <v>73.8851119825916</v>
+        <f aca="false">(C$17-N$2)*EXP(-B34/I$2)+N$2</f>
+        <v>71.676391580292</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9228,8 +9321,8 @@
         <v>43200</v>
       </c>
       <c r="C35" s="20" t="n">
-        <f aca="false">C$23*EXP(-B35/I$2)</f>
-        <v>71.879916911996</v>
+        <f aca="false">(C$17-N$2)*EXP(-B35/I$2)+N$2</f>
+        <v>69.6635584946209</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9238,8 +9331,8 @@
         <v>46800</v>
       </c>
       <c r="C36" s="20" t="n">
-        <f aca="false">C$23*EXP(-B36/I$2)</f>
-        <v>69.9291415636319</v>
+        <f aca="false">(C$17-N$2)*EXP(-B36/I$2)+N$2</f>
+        <v>67.7291267234934</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9248,8 +9341,8 @@
         <v>50400</v>
       </c>
       <c r="C37" s="20" t="n">
-        <f aca="false">C$23*EXP(-B37/I$2)</f>
-        <v>68.0313090207589</v>
+        <f aca="false">(C$17-N$2)*EXP(-B37/I$2)+N$2</f>
+        <v>65.8700424786121</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9258,8 +9351,8 @@
         <v>54000</v>
       </c>
       <c r="C38" s="20" t="n">
-        <f aca="false">C$23*EXP(-B38/I$2)</f>
-        <v>66.1849824492199</v>
+        <f aca="false">(C$17-N$2)*EXP(-B38/I$2)+N$2</f>
+        <v>64.0833709189573</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9268,8 +9361,8 @@
         <v>57600</v>
       </c>
       <c r="C39" s="20" t="n">
-        <f aca="false">C$23*EXP(-B39/I$2)</f>
-        <v>64.3887640096255</v>
+        <f aca="false">(C$17-N$2)*EXP(-B39/I$2)+N$2</f>
+        <v>62.3662915177045</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9278,26 +9371,26 @@
         <v>61200</v>
       </c>
       <c r="C40" s="20" t="n">
-        <f aca="false">C$23*EXP(-B40/I$2)</f>
-        <v>62.6412937990604</v>
+        <f aca="false">(C$17-N$2)*EXP(-B40/I$2)+N$2</f>
+        <v>60.7160936096031</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>4200</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9306,23 +9399,23 @@
         <v>64800</v>
       </c>
       <c r="C41" s="20" t="n">
-        <f aca="false">C$23*EXP(-B41/I$2)</f>
-        <v>60.9412488215119</v>
+        <f aca="false">(C$17-N$2)*EXP(-B41/I$2)+N$2</f>
+        <v>59.1301721117881</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>60</v>
       </c>
       <c r="F41" s="9" t="n">
-        <f aca="false">-LN(E41/C23)*I2</f>
-        <v>66836.6227172917</v>
+        <f aca="false">-LN((E41-N$2)/(C$17-N$2))*I$2</f>
+        <v>62807.8271620103</v>
       </c>
       <c r="P41" s="0" t="n">
         <f aca="false">P42-60*60</f>
-        <v>63236.6227172917</v>
+        <v>59207.8271620103</v>
       </c>
       <c r="Q41" s="0" t="n">
         <f aca="false">C$23*EXP(-P41/I2)</f>
-        <v>61.6737874694964</v>
+        <v>52.026468850283</v>
       </c>
       <c r="R41" s="0" t="n">
         <f aca="false">P41-P42</f>
@@ -9330,7 +9423,7 @@
       </c>
       <c r="S41" s="0" t="n">
         <f aca="false">R41*F44+E41</f>
-        <v>61.6508664</v>
+        <v>61.589184</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9339,22 +9432,22 @@
         <v>68400</v>
       </c>
       <c r="C42" s="20" t="n">
-        <f aca="false">C$23*EXP(-B42/I$2)</f>
-        <v>59.2873419862401</v>
+        <f aca="false">(C$17-N$2)*EXP(-B42/I$2)+N$2</f>
+        <v>57.606023411269</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>1.6</v>
       </c>
       <c r="P42" s="9" t="n">
         <f aca="false">F41</f>
-        <v>66836.6227172917</v>
+        <v>62807.8271620103</v>
       </c>
       <c r="Q42" s="0" t="n">
         <f aca="false">C$23*EXP(-P42/I$2)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R42" s="0" t="n">
         <f aca="false">P42-P42</f>
@@ -9371,20 +9464,20 @@
         <v>72000</v>
       </c>
       <c r="C43" s="20" t="n">
-        <f aca="false">C$23*EXP(-B43/I$2)</f>
-        <v>57.6783211333308</v>
+        <f aca="false">(C$17-N$2)*EXP(-B43/I$2)+N$2</f>
+        <v>56.141241412605</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H43" s="21"/>
       <c r="P43" s="0" t="n">
         <f aca="false">P42+60*60</f>
-        <v>70436.6227172917</v>
+        <v>66407.8271620103</v>
       </c>
       <c r="Q43" s="0" t="n">
         <f aca="false">C$23*EXP(-P43/I$2)</f>
-        <v>58.371638060668</v>
+        <v>48.0524635872227</v>
       </c>
       <c r="R43" s="0" t="n">
         <f aca="false">P43-P42</f>
@@ -9392,7 +9485,7 @@
       </c>
       <c r="S43" s="0" t="n">
         <f aca="false">R43*F44+E41</f>
-        <v>58.3491336</v>
+        <v>58.410816</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9401,19 +9494,19 @@
         <v>75600</v>
       </c>
       <c r="C44" s="20" t="n">
-        <f aca="false">C$23*EXP(-B44/I$2)</f>
-        <v>56.112968085696</v>
+        <f aca="false">(C$17-N$2)*EXP(-B44/I$2)+N$2</f>
+        <v>54.7335137395245</v>
       </c>
       <c r="F44" s="17" t="n">
-        <f aca="false">-C23/I2*EXP(-F41/I2)</f>
-        <v>-0.000458574000000002</v>
+        <f aca="false">-(C17-N$2)/I2*EXP(-F41/I2)</f>
+        <v>-0.00044144</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I44" s="18" t="n">
         <f aca="false">-(I42*I40*F44)</f>
-        <v>3.08161728000001</v>
+        <v>2.9664768</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9422,15 +9515,15 @@
         <v>79200</v>
       </c>
       <c r="C45" s="20" t="n">
-        <f aca="false">C$23*EXP(-B45/I$2)</f>
-        <v>54.590097726801</v>
+        <f aca="false">(C$17-N$2)*EXP(-B45/I$2)+N$2</f>
+        <v>53.380618084496</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" s="23" t="n">
         <f aca="false">I44/1000</f>
-        <v>0.00308161728000001</v>
+        <v>0.0029664768</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9439,8 +9532,8 @@
         <v>82800</v>
       </c>
       <c r="C46" s="20" t="n">
-        <f aca="false">C$23*EXP(-B46/I$2)</f>
-        <v>53.108557103422</v>
+        <f aca="false">(C$17-N$2)*EXP(-B46/I$2)+N$2</f>
+        <v>52.0804187004846</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9449,8 +9542,8 @@
         <v>86400</v>
       </c>
       <c r="C47" s="20" t="n">
-        <f aca="false">C$23*EXP(-B47/I$2)</f>
-        <v>51.6672245527545</v>
+        <f aca="false">(C$17-N$2)*EXP(-B47/I$2)+N$2</f>
+        <v>50.8308630293579</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9459,14 +9552,14 @@
         <v>90000</v>
       </c>
       <c r="C48" s="20" t="n">
-        <f aca="false">C$23*EXP(-B48/I$2)</f>
-        <v>50.2650088532107</v>
+        <f aca="false">(C$17-N$2)*EXP(-B48/I$2)+N$2</f>
+        <v>49.6299784616173</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9475,15 +9568,15 @@
         <v>93600</v>
       </c>
       <c r="C49" s="20" t="n">
-        <f aca="false">C$23*EXP(-B49/I$2)</f>
-        <v>48.9008483982648</v>
+        <f aca="false">(C$17-N$2)*EXP(-B49/I$2)+N$2</f>
+        <v>48.4758692223412</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>92.572</v>
+        <v>94.129</v>
       </c>
       <c r="F49" s="9" t="n">
-        <f aca="false">-LN(E49/C23)*I$2</f>
-        <v>10098.7146071093</v>
+        <f aca="false">-LN((E49-N$2)/(C$17-N$2))*I$2</f>
+        <v>6906.47117718658</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9492,8 +9585,8 @@
         <v>97200</v>
       </c>
       <c r="C50" s="20" t="n">
-        <f aca="false">C$23*EXP(-B50/I$2)</f>
-        <v>47.5737103927184</v>
+        <f aca="false">(C$17-N$2)*EXP(-B50/I$2)+N$2</f>
+        <v>47.3667133784213</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9502,8 +9595,8 @@
         <v>100800</v>
       </c>
       <c r="C51" s="20" t="n">
-        <f aca="false">C$23*EXP(-B51/I$2)</f>
-        <v>46.28259007078</v>
+        <f aca="false">(C$17-N$2)*EXP(-B51/I$2)+N$2</f>
+        <v>46.300759962371</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9512,8 +9605,8 @@
         <v>104400</v>
       </c>
       <c r="C52" s="20" t="n">
-        <f aca="false">C$23*EXP(-B52/I$2)</f>
-        <v>45.0265099353639</v>
+        <f aca="false">(C$17-N$2)*EXP(-B52/I$2)+N$2</f>
+        <v>45.2763262081623</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9522,8 +9615,8 @@
         <v>108000</v>
       </c>
       <c r="C53" s="20" t="n">
-        <f aca="false">C$23*EXP(-B53/I$2)</f>
-        <v>43.8045190180355</v>
+        <f aca="false">(C$17-N$2)*EXP(-B53/I$2)+N$2</f>
+        <v>44.2917948947296</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9532,8 +9625,8 @@
         <v>111600</v>
       </c>
       <c r="C54" s="20" t="n">
-        <f aca="false">C$23*EXP(-B54/I$2)</f>
-        <v>42.6156921590403</v>
+        <f aca="false">(C$17-N$2)*EXP(-B54/I$2)+N$2</f>
+        <v>43.3456117929455</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9542,8 +9635,8 @@
         <v>115200</v>
       </c>
       <c r="C55" s="20" t="n">
-        <f aca="false">C$23*EXP(-B55/I$2)</f>
-        <v>41.4591293068724</v>
+        <f aca="false">(C$17-N$2)*EXP(-B55/I$2)+N$2</f>
+        <v>42.436283212039</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9552,8 +9645,8 @@
         <v>118800</v>
       </c>
       <c r="C56" s="20" t="n">
-        <f aca="false">C$23*EXP(-B56/I$2)</f>
-        <v>40.3339548368531</v>
+        <f aca="false">(C$17-N$2)*EXP(-B56/I$2)+N$2</f>
+        <v>41.5623736415824</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9562,8 +9655,8 @@
         <v>122400</v>
       </c>
       <c r="C57" s="20" t="n">
-        <f aca="false">C$23*EXP(-B57/I$2)</f>
-        <v>39.239316888202</v>
+        <f aca="false">(C$17-N$2)*EXP(-B57/I$2)+N$2</f>
+        <v>40.7225034853246</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9572,8 +9665,8 @@
         <v>126000</v>
       </c>
       <c r="C58" s="20" t="n">
-        <f aca="false">C$23*EXP(-B58/I$2)</f>
-        <v>38.1743867190997</v>
+        <f aca="false">(C$17-N$2)*EXP(-B58/I$2)+N$2</f>
+        <v>39.9153468832931</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9582,8 +9675,8 @@
         <v>129600</v>
       </c>
       <c r="C59" s="20" t="n">
-        <f aca="false">C$23*EXP(-B59/I$2)</f>
-        <v>37.1383580792543</v>
+        <f aca="false">(C$17-N$2)*EXP(-B59/I$2)+N$2</f>
+        <v>39.139629618727</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9592,8 +9685,8 @@
         <v>133200</v>
       </c>
       <c r="C60" s="20" t="n">
-        <f aca="false">C$23*EXP(-B60/I$2)</f>
-        <v>36.1304465994953</v>
+        <f aca="false">(C$17-N$2)*EXP(-B60/I$2)+N$2</f>
+        <v>38.3941271065361</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9602,8 +9695,8 @@
         <v>136800</v>
       </c>
       <c r="C61" s="20" t="n">
-        <f aca="false">C$23*EXP(-B61/I$2)</f>
-        <v>35.1498891979338</v>
+        <f aca="false">(C$17-N$2)*EXP(-B61/I$2)+N$2</f>
+        <v>37.6776624601114</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9612,8 +9705,8 @@
         <v>140400</v>
       </c>
       <c r="C62" s="20" t="n">
-        <f aca="false">C$23*EXP(-B62/I$2)</f>
-        <v>34.1959435022396</v>
+        <f aca="false">(C$17-N$2)*EXP(-B62/I$2)+N$2</f>
+        <v>36.9891046334344</v>
       </c>
     </row>
   </sheetData>
@@ -9635,8 +9728,8 @@
   </sheetPr>
   <dimension ref="B1:S62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H48" activeCellId="0" sqref="H48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q51" activeCellId="0" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9660,29 +9753,41 @@
       <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="P1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I2" s="9" t="n">
-        <f aca="false">1/0.0000064761</f>
-        <v>154413.921959204</v>
+        <f aca="false">1/0.0000094808</f>
+        <v>105476.331111299</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9701,7 +9806,11 @@
       </c>
       <c r="P3" s="15" t="n">
         <f aca="false">D3+F$49</f>
-        <v>6606.17468776603</v>
+        <v>2880.23843264744</v>
+      </c>
+      <c r="Q3" s="14" t="n">
+        <f aca="false">E3-N$2</f>
+        <v>79.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9720,11 +9829,15 @@
         <v>69</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P4" s="15" t="n">
         <f aca="false">D4+F$49</f>
-        <v>51306.174687766</v>
+        <v>47580.2384326474</v>
+      </c>
+      <c r="Q4" s="14" t="n">
+        <f aca="false">E4-N$2</f>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9743,7 +9856,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="17" t="n">
-        <f aca="false">E$3*EXP(-D3/I$2)</f>
+        <f aca="false">Q$3*EXP(-D3/I$2)+N$2</f>
         <v>99.5</v>
       </c>
       <c r="I5" s="17" t="n">
@@ -9756,11 +9869,15 @@
       </c>
       <c r="K5" s="18" t="n">
         <f aca="false">SQRT(AVERAGE(J6:J8))</f>
-        <v>4.01640690340555</v>
+        <v>2.20829704034445</v>
       </c>
       <c r="P5" s="15" t="n">
         <f aca="false">D5+F$49</f>
-        <v>89226.174687766</v>
+        <v>85500.2384326475</v>
+      </c>
+      <c r="Q5" s="14" t="n">
+        <f aca="false">E5-N$2</f>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9779,51 +9896,55 @@
         <v>44.5</v>
       </c>
       <c r="H6" s="17" t="n">
-        <f aca="false">E$3*EXP(-D4/I$2)</f>
-        <v>74.4908257989566</v>
+        <f aca="false">Q$3*EXP(-D4/I$2)+N$2</f>
+        <v>72.0375337795917</v>
       </c>
       <c r="I6" s="17" t="n">
         <f aca="false">H6-E4</f>
-        <v>5.49082579895661</v>
+        <v>3.03753377959168</v>
       </c>
       <c r="J6" s="17" t="n">
         <f aca="false">I6^2</f>
-        <v>30.1491679544875</v>
+        <v>9.22661146216054</v>
       </c>
       <c r="K6" s="17"/>
       <c r="P6" s="15" t="n">
         <f aca="false">D6+F$49</f>
-        <v>131106.174687766</v>
+        <v>127380.238432647</v>
+      </c>
+      <c r="Q6" s="14" t="n">
+        <f aca="false">E6-N$2</f>
+        <v>24.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="17" t="n">
-        <f aca="false">E$3*EXP(-D5/I$2)</f>
-        <v>58.2708671228791</v>
+        <f aca="false">Q$3*EXP(-D5/I$2)+N$2</f>
+        <v>56.3230790469022</v>
       </c>
       <c r="I7" s="17" t="n">
         <f aca="false">H7-E5</f>
-        <v>4.27086712287912</v>
+        <v>2.32307904690219</v>
       </c>
       <c r="J7" s="17" t="n">
         <f aca="false">I7^2</f>
-        <v>18.2403059812898</v>
+        <v>5.39669625815597</v>
       </c>
       <c r="K7" s="17"/>
       <c r="P7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="17" t="n">
-        <f aca="false">E$3*EXP(-D6/I$2)</f>
-        <v>44.4285905790948</v>
+        <f aca="false">Q$3*EXP(-D6/I$2)+N$2</f>
+        <v>44.4198767520271</v>
       </c>
       <c r="I8" s="17" t="n">
         <f aca="false">H8-E6</f>
-        <v>-0.0714094209051908</v>
+        <v>-0.0801232479728782</v>
       </c>
       <c r="J8" s="17" t="n">
         <f aca="false">I8^2</f>
-        <v>0.00509930539401469</v>
+        <v>0.00641973486572333</v>
       </c>
       <c r="K8" s="17"/>
       <c r="P8" s="15"/>
@@ -9848,9 +9969,9 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="26" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9859,15 +9980,15 @@
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9875,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="20" t="n">
-        <f aca="false">C17</f>
+        <f aca="false">(C$17-N$2)*EXP(-B23/I$2)+N$2</f>
         <v>100</v>
       </c>
     </row>
@@ -9885,8 +10006,8 @@
         <v>3600</v>
       </c>
       <c r="C24" s="20" t="n">
-        <f aca="false">C$23*EXP(-B24/I$2)</f>
-        <v>97.6955710603644</v>
+        <f aca="false">(C$17-N$2)*EXP(-B24/I$2)+N$2</f>
+        <v>97.3156006429678</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9895,8 +10016,8 @@
         <v>7200</v>
       </c>
       <c r="C25" s="20" t="n">
-        <f aca="false">C$23*EXP(-B25/I$2)</f>
-        <v>95.444246048107</v>
+        <f aca="false">(C$17-N$2)*EXP(-B25/I$2)+N$2</f>
+        <v>94.7212762847861</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9905,8 +10026,8 @@
         <v>10800</v>
       </c>
       <c r="C26" s="20" t="n">
-        <f aca="false">C$23*EXP(-B26/I$2)</f>
-        <v>93.2448012209574</v>
+        <f aca="false">(C$17-N$2)*EXP(-B26/I$2)+N$2</f>
+        <v>92.2140044595923</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9915,8 +10036,8 @@
         <v>14400</v>
       </c>
       <c r="C27" s="20" t="n">
-        <f aca="false">C$23*EXP(-B27/I$2)</f>
-        <v>91.096041036916</v>
+        <f aca="false">(C$17-N$2)*EXP(-B27/I$2)+N$2</f>
+        <v>89.7908641203417</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9925,8 +10046,8 @@
         <v>18000</v>
       </c>
       <c r="C28" s="20" t="n">
-        <f aca="false">C$23*EXP(-B28/I$2)</f>
-        <v>88.9967975043989</v>
+        <f aca="false">(C$17-N$2)*EXP(-B28/I$2)+N$2</f>
+        <v>87.4490322356996</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9935,8 +10056,8 @@
         <v>21600</v>
       </c>
       <c r="C29" s="20" t="n">
-        <f aca="false">C$23*EXP(-B29/I$2)</f>
-        <v>86.9459295473586</v>
+        <f aca="false">(C$17-N$2)*EXP(-B29/I$2)+N$2</f>
+        <v>85.1857805011252</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9945,8 +10066,8 @@
         <v>25200</v>
       </c>
       <c r="C30" s="20" t="n">
-        <f aca="false">C$23*EXP(-B30/I$2)</f>
-        <v>84.9423223850341</v>
+        <f aca="false">(C$17-N$2)*EXP(-B30/I$2)+N$2</f>
+        <v>82.9984721603144</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9955,8 +10076,8 @@
         <v>28800</v>
       </c>
       <c r="C31" s="20" t="n">
-        <f aca="false">C$23*EXP(-B31/I$2)</f>
-        <v>82.9848869259948</v>
+        <f aca="false">(C$17-N$2)*EXP(-B31/I$2)+N$2</f>
+        <v>80.8845589333</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9965,8 +10086,8 @@
         <v>32400</v>
       </c>
       <c r="C32" s="20" t="n">
-        <f aca="false">C$23*EXP(-B32/I$2)</f>
-        <v>81.0725591761483</v>
+        <f aca="false">(C$17-N$2)*EXP(-B32/I$2)+N$2</f>
+        <v>78.8415780476282</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9975,8 +10096,8 @@
         <v>36000</v>
       </c>
       <c r="C33" s="20" t="n">
-        <f aca="false">C$23*EXP(-B33/I$2)</f>
-        <v>79.2042996603899</v>
+        <f aca="false">(C$17-N$2)*EXP(-B33/I$2)+N$2</f>
+        <v>76.8671493691556</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9985,8 +10106,8 @@
         <v>39600</v>
       </c>
       <c r="C34" s="20" t="n">
-        <f aca="false">C$23*EXP(-B34/I$2)</f>
-        <v>77.3790928575801</v>
+        <f aca="false">(C$17-N$2)*EXP(-B34/I$2)+N$2</f>
+        <v>74.9589726291204</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9995,8 +10116,8 @@
         <v>43200</v>
       </c>
       <c r="C35" s="20" t="n">
-        <f aca="false">C$23*EXP(-B35/I$2)</f>
-        <v>75.5959466485425</v>
+        <f aca="false">(C$17-N$2)*EXP(-B35/I$2)+N$2</f>
+        <v>73.1148247442609</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10005,8 +10126,8 @@
         <v>46800</v>
       </c>
       <c r="C36" s="20" t="n">
-        <f aca="false">C$23*EXP(-B36/I$2)</f>
-        <v>73.853891776782</v>
+        <f aca="false">(C$17-N$2)*EXP(-B36/I$2)+N$2</f>
+        <v>71.3325572268563</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10015,8 +10136,8 @@
         <v>50400</v>
       </c>
       <c r="C37" s="20" t="n">
-        <f aca="false">C$23*EXP(-B37/I$2)</f>
-        <v>72.1519813216307</v>
+        <f aca="false">(C$17-N$2)*EXP(-B37/I$2)+N$2</f>
+        <v>69.6100936816739</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10025,8 +10146,8 @@
         <v>54000</v>
       </c>
       <c r="C38" s="20" t="n">
-        <f aca="false">C$23*EXP(-B38/I$2)</f>
-        <v>70.4892901835345</v>
+        <f aca="false">(C$17-N$2)*EXP(-B38/I$2)+N$2</f>
+        <v>67.9454273869065</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10035,8 +10156,8 @@
         <v>57600</v>
       </c>
       <c r="C39" s="20" t="n">
-        <f aca="false">C$23*EXP(-B39/I$2)</f>
-        <v>68.8649145812014</v>
+        <f aca="false">(C$17-N$2)*EXP(-B39/I$2)+N$2</f>
+        <v>66.3366189562809</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10045,26 +10166,26 @@
         <v>61200</v>
       </c>
       <c r="C40" s="20" t="n">
-        <f aca="false">C$23*EXP(-B40/I$2)</f>
-        <v>67.2779715603369</v>
+        <f aca="false">(C$17-N$2)*EXP(-B40/I$2)+N$2</f>
+        <v>64.7817940796149</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>4200</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10073,23 +10194,23 @@
         <v>64800</v>
       </c>
       <c r="C41" s="20" t="n">
-        <f aca="false">C$23*EXP(-B41/I$2)</f>
-        <v>65.7275985137006</v>
+        <f aca="false">(C$17-N$2)*EXP(-B41/I$2)+N$2</f>
+        <v>63.2791413391891</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>60</v>
       </c>
       <c r="F41" s="9" t="n">
-        <f aca="false">-LN(E41/C23)*I2</f>
-        <v>78878.5880029634</v>
+        <f aca="false">-LN((E41-N$2)/(C$17-N$2))*I$2</f>
+        <v>73110.6215256039</v>
       </c>
       <c r="P41" s="0" t="n">
         <f aca="false">P42-60*60</f>
-        <v>75278.5880029634</v>
+        <v>69510.6215256039</v>
       </c>
       <c r="Q41" s="0" t="n">
         <f aca="false">C$23*EXP(-P41/I$2)</f>
-        <v>61.4152712848437</v>
+        <v>51.7360011011415</v>
       </c>
       <c r="R41" s="0" t="n">
         <f aca="false">P41-P42</f>
@@ -10097,7 +10218,7 @@
       </c>
       <c r="S41" s="0" t="n">
         <f aca="false">R41*F44+E41</f>
-        <v>61.3988376</v>
+        <v>61.3652352</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10106,22 +10227,22 @@
         <v>68400</v>
       </c>
       <c r="C42" s="20" t="n">
-        <f aca="false">C$23*EXP(-B42/I$2)</f>
-        <v>64.2129527122234</v>
+        <f aca="false">(C$17-N$2)*EXP(-B42/I$2)+N$2</f>
+        <v>61.8269100993913</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>1.6</v>
       </c>
       <c r="P42" s="9" t="n">
         <f aca="false">F41</f>
-        <v>78878.5880029634</v>
+        <v>73110.6215256039</v>
       </c>
       <c r="Q42" s="0" t="n">
         <f aca="false">C$23*EXP(-P42/I$2)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R42" s="0" t="n">
         <f aca="false">P42-P42</f>
@@ -10138,20 +10259,20 @@
         <v>72000</v>
       </c>
       <c r="C43" s="20" t="n">
-        <f aca="false">C$23*EXP(-B43/I$2)</f>
-        <v>62.7332108469284</v>
+        <f aca="false">(C$17-N$2)*EXP(-B43/I$2)+N$2</f>
+        <v>60.4234084671732</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H43" s="21"/>
       <c r="P43" s="0" t="n">
         <f aca="false">P42+60*60</f>
-        <v>82478.5880029634</v>
+        <v>76710.6215256039</v>
       </c>
       <c r="Q43" s="0" t="n">
         <f aca="false">C$23*EXP(-P43/I$2)</f>
-        <v>58.6173426362186</v>
+        <v>48.3222504018549</v>
       </c>
       <c r="R43" s="0" t="n">
         <f aca="false">P43-P42</f>
@@ -10159,7 +10280,7 @@
       </c>
       <c r="S43" s="0" t="n">
         <f aca="false">R43*F44+E41</f>
-        <v>58.6011624</v>
+        <v>58.6347648</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10168,19 +10289,19 @@
         <v>75600</v>
       </c>
       <c r="C44" s="20" t="n">
-        <f aca="false">C$23*EXP(-B44/I$2)</f>
-        <v>61.2875685814091</v>
+        <f aca="false">(C$17-N$2)*EXP(-B44/I$2)+N$2</f>
+        <v>59.067001320944</v>
       </c>
       <c r="F44" s="17" t="n">
-        <f aca="false">-C23/I2*EXP(-F41/I2)</f>
-        <v>-0.000388566</v>
+        <f aca="false">-(C17-N$2)/I2*EXP(-F41/I2)</f>
+        <v>-0.000379232</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I44" s="18" t="n">
         <f aca="false">-(I42*I40*F44)</f>
-        <v>2.61116352</v>
+        <v>2.54843904</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10189,15 +10310,15 @@
         <v>79200</v>
       </c>
       <c r="C45" s="20" t="n">
-        <f aca="false">C$23*EXP(-B45/I$2)</f>
-        <v>59.8752401146201</v>
+        <f aca="false">(C$17-N$2)*EXP(-B45/I$2)+N$2</f>
+        <v>57.7561084056051</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" s="23" t="n">
         <f aca="false">I44/1000</f>
-        <v>0.00261116352</v>
+        <v>0.00254843904</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10206,8 +10327,8 @@
         <v>82800</v>
       </c>
       <c r="C46" s="20" t="n">
-        <f aca="false">C$23*EXP(-B46/I$2)</f>
-        <v>58.4954577537425</v>
+        <f aca="false">(C$17-N$2)*EXP(-B46/I$2)+N$2</f>
+        <v>56.4892024915045</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10216,8 +10337,8 @@
         <v>86400</v>
       </c>
       <c r="C47" s="20" t="n">
-        <f aca="false">C$23*EXP(-B47/I$2)</f>
-        <v>57.1474714968929</v>
+        <f aca="false">(C$17-N$2)*EXP(-B47/I$2)+N$2</f>
+        <v>55.2648075951694</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10226,14 +10347,14 @@
         <v>90000</v>
       </c>
       <c r="C48" s="20" t="n">
-        <f aca="false">C$23*EXP(-B48/I$2)</f>
-        <v>55.8305486254485</v>
+        <f aca="false">(C$17-N$2)*EXP(-B48/I$2)+N$2</f>
+        <v>54.0814972597402</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10242,15 +10363,15 @@
         <v>93600</v>
       </c>
       <c r="C49" s="20" t="n">
-        <f aca="false">C$23*EXP(-B49/I$2)</f>
-        <v>54.5439733057663</v>
-      </c>
-      <c r="E49" s="26" t="n">
-        <v>95.812</v>
+        <f aca="false">(C$17-N$2)*EXP(-B49/I$2)+N$2</f>
+        <v>52.9378928931059</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>97.845</v>
       </c>
       <c r="F49" s="9" t="n">
-        <f aca="false">-LN(E49/C23)*I$2</f>
-        <v>6606.17468776603</v>
+        <f aca="false">-LN((E49-N$2)/(C$17-N$2))*I$2</f>
+        <v>2880.23843264744</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10259,8 +10380,8 @@
         <v>97200</v>
       </c>
       <c r="C50" s="20" t="n">
-        <f aca="false">C$23*EXP(-B50/I$2)</f>
-        <v>53.2870462000811</v>
+        <f aca="false">(C$17-N$2)*EXP(-B50/I$2)+N$2</f>
+        <v>51.8326621618028</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10269,8 +10390,8 @@
         <v>100800</v>
       </c>
       <c r="C51" s="20" t="n">
-        <f aca="false">C$23*EXP(-B51/I$2)</f>
-        <v>52.0590840863694</v>
+        <f aca="false">(C$17-N$2)*EXP(-B51/I$2)+N$2</f>
+        <v>50.7645174388058</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10279,8 +10400,8 @@
         <v>104400</v>
       </c>
       <c r="C52" s="20" t="n">
-        <f aca="false">C$23*EXP(-B52/I$2)</f>
-        <v>50.8594194869739</v>
+        <f aca="false">(C$17-N$2)*EXP(-B52/I$2)+N$2</f>
+        <v>49.7322143034041</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10289,8 +10410,8 @@
         <v>108000</v>
       </c>
       <c r="C53" s="20" t="n">
-        <f aca="false">C$23*EXP(-B53/I$2)</f>
-        <v>49.6874003057854</v>
+        <f aca="false">(C$17-N$2)*EXP(-B53/I$2)+N$2</f>
+        <v>48.7345500914141</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10299,8 +10420,8 @@
         <v>111600</v>
       </c>
       <c r="C54" s="20" t="n">
-        <f aca="false">C$23*EXP(-B54/I$2)</f>
-        <v>48.5423894737862</v>
+        <f aca="false">(C$17-N$2)*EXP(-B54/I$2)+N$2</f>
+        <v>47.770362494039</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10309,8 +10430,8 @@
         <v>115200</v>
       </c>
       <c r="C55" s="20" t="n">
-        <f aca="false">C$23*EXP(-B55/I$2)</f>
-        <v>47.4237646027617</v>
+        <f aca="false">(C$17-N$2)*EXP(-B55/I$2)+N$2</f>
+        <v>46.8385282037447</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10319,8 +10440,8 @@
         <v>118800</v>
       </c>
       <c r="C56" s="20" t="n">
-        <f aca="false">C$23*EXP(-B56/I$2)</f>
-        <v>46.3309176469909</v>
+        <f aca="false">(C$17-N$2)*EXP(-B56/I$2)+N$2</f>
+        <v>45.9379616055719</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10329,8 +10450,8 @@
         <v>122400</v>
       </c>
       <c r="C57" s="20" t="n">
-        <f aca="false">C$23*EXP(-B57/I$2)</f>
-        <v>45.2632545727349</v>
+        <f aca="false">(C$17-N$2)*EXP(-B57/I$2)+N$2</f>
+        <v>45.0676135123629</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10339,8 +10460,8 @@
         <v>126000</v>
       </c>
       <c r="C58" s="20" t="n">
-        <f aca="false">C$23*EXP(-B58/I$2)</f>
-        <v>44.2201950353399</v>
+        <f aca="false">(C$17-N$2)*EXP(-B58/I$2)+N$2</f>
+        <v>44.2264699424264</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10349,8 +10470,8 @@
         <v>129600</v>
       </c>
       <c r="C59" s="20" t="n">
-        <f aca="false">C$23*EXP(-B59/I$2)</f>
-        <v>43.2011720637822</v>
+        <f aca="false">(C$17-N$2)*EXP(-B59/I$2)+N$2</f>
+        <v>43.4135509382188</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10359,8 +10480,8 @@
         <v>133200</v>
       </c>
       <c r="C60" s="20" t="n">
-        <f aca="false">C$23*EXP(-B60/I$2)</f>
-        <v>42.2056317524826</v>
+        <f aca="false">(C$17-N$2)*EXP(-B60/I$2)+N$2</f>
+        <v>42.6279094246639</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10369,8 +10490,8 @@
         <v>136800</v>
       </c>
       <c r="C61" s="20" t="n">
-        <f aca="false">C$23*EXP(-B61/I$2)</f>
-        <v>41.2330329602224</v>
+        <f aca="false">(C$17-N$2)*EXP(-B61/I$2)+N$2</f>
+        <v>41.868630105782</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10379,8 +10500,8 @@
         <v>140400</v>
       </c>
       <c r="C62" s="20" t="n">
-        <f aca="false">C$23*EXP(-B62/I$2)</f>
-        <v>40.2828470159975</v>
+        <f aca="false">(C$17-N$2)*EXP(-B62/I$2)+N$2</f>
+        <v>41.1348283983428</v>
       </c>
     </row>
   </sheetData>
@@ -10402,8 +10523,8 @@
   </sheetPr>
   <dimension ref="B1:S74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M59" activeCellId="0" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10427,37 +10548,49 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="P1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <f aca="false">1/0.000011628</f>
+        <v>85999.312005504</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="K2" s="9" t="n">
-        <f aca="false">1/0.0000071775</f>
-        <v>139324.277255312</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10476,11 +10609,15 @@
       </c>
       <c r="F3" s="28" t="n">
         <f aca="false">(E3-E4)/(D3-D4)</f>
-        <v>-0.000574712643678161</v>
+        <v>-0.000574712643347866</v>
       </c>
       <c r="P3" s="15" t="n">
         <f aca="false">D3+F$66</f>
-        <v>51482.2929829346</v>
+        <v>40750.8617969237</v>
+      </c>
+      <c r="Q3" s="14" t="n">
+        <f aca="false">E3-N$2</f>
+        <v>49.9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10489,11 +10626,11 @@
       </c>
       <c r="C4" s="12" t="n">
         <f aca="false">B4+0-B$3</f>
-        <v>0.0201388888888889</v>
-      </c>
-      <c r="D4" s="16" t="n">
+        <v>0.020138888900463</v>
+      </c>
+      <c r="D4" s="13" t="n">
         <f aca="false">C4*24*60*60</f>
-        <v>1740</v>
+        <v>1740.000001</v>
       </c>
       <c r="E4" s="22" t="n">
         <v>68.9</v>
@@ -10503,11 +10640,15 @@
         <v>-0.000530303030303033</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P4" s="15" t="n">
         <f aca="false">D4+F$66</f>
-        <v>53222.2929829346</v>
+        <v>42490.8617979237</v>
+      </c>
+      <c r="Q4" s="14" t="n">
+        <f aca="false">E4-N$2</f>
+        <v>48.9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10516,11 +10657,11 @@
       </c>
       <c r="C5" s="12" t="n">
         <f aca="false">B5+0-B$3</f>
-        <v>0.0354166666666667</v>
-      </c>
-      <c r="D5" s="16" t="n">
+        <v>0.0354166666782407</v>
+      </c>
+      <c r="D5" s="13" t="n">
         <f aca="false">C5*24*60*60</f>
-        <v>3060</v>
+        <v>3060.000001</v>
       </c>
       <c r="E5" s="22" t="n">
         <v>68.2</v>
@@ -10530,7 +10671,7 @@
         <v>-0.000606060606060615</v>
       </c>
       <c r="J5" s="17" t="n">
-        <f aca="false">E$3*EXP(-D3/K$2)</f>
+        <f aca="false">Q$3*EXP(-D3/K$2)+N$2</f>
         <v>69.9</v>
       </c>
       <c r="K5" s="17" t="n">
@@ -10543,11 +10684,15 @@
       </c>
       <c r="M5" s="18" t="n">
         <f aca="false">SQRT(AVERAGE(L6:L21))</f>
-        <v>0.825617419378502</v>
+        <v>0.159186341594769</v>
       </c>
       <c r="P5" s="15" t="n">
         <f aca="false">D5+F$66</f>
-        <v>54542.2929829346</v>
+        <v>43810.8617979237</v>
+      </c>
+      <c r="Q5" s="14" t="n">
+        <f aca="false">E5-N$2</f>
+        <v>48.2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10556,11 +10701,11 @@
       </c>
       <c r="C6" s="12" t="n">
         <f aca="false">B6+0-B$3</f>
-        <v>0.0430555555555556</v>
-      </c>
-      <c r="D6" s="16" t="n">
+        <v>0.0430555555671296</v>
+      </c>
+      <c r="D6" s="13" t="n">
         <f aca="false">C6*24*60*60</f>
-        <v>3720</v>
+        <v>3720.000001</v>
       </c>
       <c r="E6" s="22" t="n">
         <v>67.8</v>
@@ -10570,21 +10715,25 @@
         <v>-0.000645161290322582</v>
       </c>
       <c r="J6" s="17" t="n">
-        <f aca="false">E$3*EXP(-D4/K$2)</f>
-        <v>69.0324579621375</v>
+        <f aca="false">Q$3*EXP(-D4/K$2)+N$2</f>
+        <v>68.900532341257</v>
       </c>
       <c r="K6" s="17" t="n">
         <f aca="false">J6-E4</f>
-        <v>0.132457962137451</v>
+        <v>0.000532341257013513</v>
       </c>
       <c r="L6" s="17" t="n">
         <f aca="false">K6^2</f>
-        <v>0.0175451117336064</v>
+        <v>2.83387213918727E-007</v>
       </c>
       <c r="M6" s="17"/>
       <c r="P6" s="15" t="n">
         <f aca="false">D6+F$66</f>
-        <v>55202.2929829346</v>
+        <v>44470.8617979237</v>
+      </c>
+      <c r="Q6" s="14" t="n">
+        <f aca="false">E6-N$2</f>
+        <v>47.8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10593,11 +10742,11 @@
       </c>
       <c r="C7" s="12" t="n">
         <f aca="false">B7+0-B$3</f>
-        <v>0.0645833333333333</v>
-      </c>
-      <c r="D7" s="16" t="n">
+        <v>0.0645833333449074</v>
+      </c>
+      <c r="D7" s="13" t="n">
         <f aca="false">C7*24*60*60</f>
-        <v>5580</v>
+        <v>5580.000001</v>
       </c>
       <c r="E7" s="22" t="n">
         <v>66.6</v>
@@ -10607,21 +10756,25 @@
         <v>-0.000531914893617021</v>
       </c>
       <c r="J7" s="17" t="n">
-        <f aca="false">E$3*EXP(-D5/K$2)</f>
-        <v>68.3815122423779</v>
+        <f aca="false">Q$3*EXP(-D5/K$2)+N$2</f>
+        <v>68.15569092004</v>
       </c>
       <c r="K7" s="17" t="n">
         <f aca="false">J7-E5</f>
-        <v>0.181512242377892</v>
+        <v>-0.0443090799600014</v>
       </c>
       <c r="L7" s="17" t="n">
         <f aca="false">K7^2</f>
-        <v>0.0329466941330505</v>
+        <v>0.0019632945669018</v>
       </c>
       <c r="M7" s="17"/>
       <c r="P7" s="15" t="n">
         <f aca="false">D7+F$66</f>
-        <v>57062.2929829346</v>
+        <v>46330.8617979237</v>
+      </c>
+      <c r="Q7" s="14" t="n">
+        <f aca="false">E7-N$2</f>
+        <v>46.6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10630,11 +10783,11 @@
       </c>
       <c r="C8" s="12" t="n">
         <f aca="false">B8+0-B$3</f>
-        <v>0.0972222222222222</v>
-      </c>
-      <c r="D8" s="16" t="n">
+        <v>0.0972222222337963</v>
+      </c>
+      <c r="D8" s="13" t="n">
         <f aca="false">C8*24*60*60</f>
-        <v>8400</v>
+        <v>8400.000001</v>
       </c>
       <c r="E8" s="22" t="n">
         <v>65.1</v>
@@ -10644,21 +10797,25 @@
         <v>-0.000537634408602149</v>
       </c>
       <c r="J8" s="17" t="n">
-        <f aca="false">E$3*EXP(-D6/K$2)</f>
-        <v>68.0583448122934</v>
+        <f aca="false">Q$3*EXP(-D6/K$2)+N$2</f>
+        <v>67.7875355406911</v>
       </c>
       <c r="K8" s="17" t="n">
         <f aca="false">J8-E6</f>
-        <v>0.258344812293387</v>
+        <v>-0.0124644593089158</v>
       </c>
       <c r="L8" s="17" t="n">
         <f aca="false">K8^2</f>
-        <v>0.0667420420389056</v>
+        <v>0.000155362745863618</v>
       </c>
       <c r="M8" s="17"/>
       <c r="P8" s="15" t="n">
         <f aca="false">D8+F$66</f>
-        <v>59882.2929829346</v>
+        <v>49150.8617979237</v>
+      </c>
+      <c r="Q8" s="14" t="n">
+        <f aca="false">E8-N$2</f>
+        <v>45.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10667,11 +10824,11 @@
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">B9+0-B$3</f>
-        <v>0.140277777777778</v>
-      </c>
-      <c r="D9" s="16" t="n">
+        <v>0.140277777789352</v>
+      </c>
+      <c r="D9" s="13" t="n">
         <f aca="false">C9*24*60*60</f>
-        <v>12120</v>
+        <v>12120.000001</v>
       </c>
       <c r="E9" s="22" t="n">
         <v>63.1</v>
@@ -10681,20 +10838,24 @@
         <v>-0.00050925925925926</v>
       </c>
       <c r="J9" s="17" t="n">
-        <f aca="false">E$3*EXP(-D7/K$2)</f>
-        <v>67.1557937014912</v>
+        <f aca="false">Q$3*EXP(-D7/K$2)+N$2</f>
+        <v>66.7650796342844</v>
       </c>
       <c r="K9" s="17" t="n">
         <f aca="false">J9-E7</f>
-        <v>0.555793701491183</v>
+        <v>0.16507963428441</v>
       </c>
       <c r="L9" s="17" t="n">
         <f aca="false">K9^2</f>
-        <v>0.30890663861727</v>
+        <v>0.0272512856554747</v>
       </c>
       <c r="P9" s="15" t="n">
         <f aca="false">D9+F$66</f>
-        <v>63602.2929829346</v>
+        <v>52870.8617979237</v>
+      </c>
+      <c r="Q9" s="14" t="n">
+        <f aca="false">E9-N$2</f>
+        <v>43.1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10703,11 +10864,11 @@
       </c>
       <c r="C10" s="12" t="n">
         <f aca="false">B10+0-B$3</f>
-        <v>0.165277777777778</v>
-      </c>
-      <c r="D10" s="16" t="n">
+        <v>0.165277777789352</v>
+      </c>
+      <c r="D10" s="13" t="n">
         <f aca="false">C10*24*60*60</f>
-        <v>14280</v>
+        <v>14280.000001</v>
       </c>
       <c r="E10" s="22" t="n">
         <v>62</v>
@@ -10717,20 +10878,24 @@
         <v>-0.000459770114942529</v>
       </c>
       <c r="J10" s="17" t="n">
-        <f aca="false">E$3*EXP(-D8/K$2)</f>
-        <v>65.8101873463147</v>
+        <f aca="false">Q$3*EXP(-D8/K$2)+N$2</f>
+        <v>65.2564772136851</v>
       </c>
       <c r="K10" s="17" t="n">
         <f aca="false">J10-E8</f>
-        <v>0.710187346314683</v>
+        <v>0.156477213685093</v>
       </c>
       <c r="L10" s="17" t="n">
         <f aca="false">K10^2</f>
-        <v>0.504366066865492</v>
+        <v>0.0244851184026504</v>
       </c>
       <c r="P10" s="15" t="n">
         <f aca="false">D10+F$66</f>
-        <v>65762.2929829346</v>
+        <v>55030.8617979237</v>
+      </c>
+      <c r="Q10" s="14" t="n">
+        <f aca="false">E10-N$2</f>
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10739,34 +10904,38 @@
       </c>
       <c r="C11" s="12" t="n">
         <f aca="false">B11+0-B$3</f>
-        <v>0.205555555555556</v>
-      </c>
-      <c r="D11" s="16" t="n">
+        <v>0.20555555556713</v>
+      </c>
+      <c r="D11" s="13" t="n">
         <f aca="false">C11*24*60*60</f>
-        <v>17760</v>
+        <v>17760.000001</v>
       </c>
       <c r="E11" s="22" t="n">
         <v>60.4</v>
       </c>
       <c r="F11" s="28" t="n">
         <f aca="false">(E11-E12)/(D11-D12)</f>
-        <v>-0.000465116279069766</v>
+        <v>-0.000465116279069765</v>
       </c>
       <c r="J11" s="17" t="n">
-        <f aca="false">E$3*EXP(-D9/K$2)</f>
-        <v>64.0762864460245</v>
+        <f aca="false">Q$3*EXP(-D9/K$2)+N$2</f>
+        <v>63.3405914493106</v>
       </c>
       <c r="K11" s="17" t="n">
         <f aca="false">J11-E9</f>
-        <v>0.976286446024467</v>
+        <v>0.240591449310614</v>
       </c>
       <c r="L11" s="17" t="n">
         <f aca="false">K11^2</f>
-        <v>0.953135224691085</v>
+        <v>0.0578842454813817</v>
       </c>
       <c r="P11" s="15" t="n">
         <f aca="false">D11+F$66</f>
-        <v>69242.2929829346</v>
+        <v>58510.8617979237</v>
+      </c>
+      <c r="Q11" s="14" t="n">
+        <f aca="false">E11-N$2</f>
+        <v>40.4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10775,34 +10944,38 @@
       </c>
       <c r="C12" s="12" t="n">
         <f aca="false">B12+0-B$3</f>
-        <v>0.235416666666667</v>
-      </c>
-      <c r="D12" s="16" t="n">
+        <v>0.235416666678241</v>
+      </c>
+      <c r="D12" s="13" t="n">
         <f aca="false">C12*24*60*60</f>
-        <v>20340</v>
+        <v>20340.000001</v>
       </c>
       <c r="E12" s="22" t="n">
         <v>59.2</v>
       </c>
       <c r="F12" s="28" t="n">
         <f aca="false">(E12-E13)/(D12-D13)</f>
-        <v>-0.000396825396825396</v>
+        <v>-0.000396825396825397</v>
       </c>
       <c r="J12" s="17" t="n">
-        <f aca="false">E$3*EXP(-D10/K$2)</f>
-        <v>63.0905470467428</v>
+        <f aca="false">Q$3*EXP(-D10/K$2)+N$2</f>
+        <v>62.265585051604</v>
       </c>
       <c r="K12" s="17" t="n">
         <f aca="false">J12-E10</f>
-        <v>1.09054704674275</v>
+        <v>0.265585051604027</v>
       </c>
       <c r="L12" s="17" t="n">
         <f aca="false">K12^2</f>
-        <v>1.18929286115933</v>
+        <v>0.0705354196355139</v>
       </c>
       <c r="P12" s="15" t="n">
         <f aca="false">D12+F$66</f>
-        <v>71822.2929829346</v>
+        <v>61090.8617979237</v>
+      </c>
+      <c r="Q12" s="14" t="n">
+        <f aca="false">E12-N$2</f>
+        <v>39.2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10811,34 +10984,38 @@
       </c>
       <c r="C13" s="12" t="n">
         <f aca="false">B13+0-B$3</f>
-        <v>0.3375</v>
-      </c>
-      <c r="D13" s="16" t="n">
+        <v>0.337500000011574</v>
+      </c>
+      <c r="D13" s="13" t="n">
         <f aca="false">C13*24*60*60</f>
-        <v>29160</v>
+        <v>29160.000001</v>
       </c>
       <c r="E13" s="22" t="n">
         <v>55.7</v>
       </c>
       <c r="F13" s="28" t="n">
         <f aca="false">(E13-E14)/(D13-D14)</f>
-        <v>-0.000394736842105264</v>
+        <v>-0.000394736842162974</v>
       </c>
       <c r="J13" s="17" t="n">
-        <f aca="false">E$3*EXP(-D11/K$2)</f>
-        <v>61.5342080875183</v>
+        <f aca="false">Q$3*EXP(-D11/K$2)+N$2</f>
+        <v>60.589431415002</v>
       </c>
       <c r="K13" s="17" t="n">
         <f aca="false">J13-E11</f>
-        <v>1.13420808751834</v>
+        <v>0.189431415002034</v>
       </c>
       <c r="L13" s="17" t="n">
         <f aca="false">K13^2</f>
-        <v>1.28642798579201</v>
+        <v>0.0358842609896727</v>
       </c>
       <c r="P13" s="15" t="n">
         <f aca="false">D13+F$66</f>
-        <v>80642.2929829346</v>
+        <v>69910.8617979238</v>
+      </c>
+      <c r="Q13" s="14" t="n">
+        <f aca="false">E13-N$2</f>
+        <v>35.7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10849,7 +11026,7 @@
         <f aca="false">B14+0-B$3</f>
         <v>0.416666666666667</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="13" t="n">
         <f aca="false">C14*24*60*60</f>
         <v>36000</v>
       </c>
@@ -10858,23 +11035,27 @@
       </c>
       <c r="F14" s="28" t="n">
         <f aca="false">(E14-E15)/(D14-D15)</f>
-        <v>-0.000375586854460094</v>
+        <v>-0.000375586854371928</v>
       </c>
       <c r="J14" s="17" t="n">
-        <f aca="false">E$3*EXP(-D12/K$2)</f>
-        <v>60.4052063600354</v>
+        <f aca="false">Q$3*EXP(-D12/K$2)+N$2</f>
+        <v>59.3898229724036</v>
       </c>
       <c r="K14" s="17" t="n">
         <f aca="false">J14-E12</f>
-        <v>1.20520636003538</v>
+        <v>0.189822972403576</v>
       </c>
       <c r="L14" s="17" t="n">
         <f aca="false">K14^2</f>
-        <v>1.45252237026972</v>
+        <v>0.0360327608521287</v>
       </c>
       <c r="P14" s="15" t="n">
         <f aca="false">D14+F$66</f>
-        <v>87482.2929829346</v>
+        <v>76750.8617969237</v>
+      </c>
+      <c r="Q14" s="14" t="n">
+        <f aca="false">E14-N$2</f>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10883,34 +11064,38 @@
       </c>
       <c r="C15" s="12" t="n">
         <f aca="false">B15+0-B$3</f>
-        <v>0.465972222222222</v>
-      </c>
-      <c r="D15" s="16" t="n">
+        <v>0.465972222233796</v>
+      </c>
+      <c r="D15" s="13" t="n">
         <f aca="false">C15*24*60*60</f>
-        <v>40260</v>
+        <v>40260.000001</v>
       </c>
       <c r="E15" s="22" t="n">
         <v>51.4</v>
       </c>
       <c r="F15" s="28" t="n">
         <f aca="false">(E15-E16)/(D15-D16)</f>
-        <v>-0.000361445783132529</v>
+        <v>-0.000361445783205109</v>
       </c>
       <c r="J15" s="17" t="n">
-        <f aca="false">E$3*EXP(-D13/K$2)</f>
-        <v>56.6997470338578</v>
+        <f aca="false">Q$3*EXP(-D13/K$2)+N$2</f>
+        <v>55.5502974301982</v>
       </c>
       <c r="K15" s="17" t="n">
         <f aca="false">J15-E13</f>
-        <v>0.999747033857801</v>
+        <v>-0.149702569801825</v>
       </c>
       <c r="L15" s="17" t="n">
         <f aca="false">K15^2</f>
-        <v>0.999494131707471</v>
+        <v>0.0224108594052702</v>
       </c>
       <c r="P15" s="15" t="n">
         <f aca="false">D15+F$66</f>
-        <v>91742.2929829346</v>
+        <v>81010.8617979238</v>
+      </c>
+      <c r="Q15" s="14" t="n">
+        <f aca="false">E15-N$2</f>
+        <v>31.4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10921,7 +11106,7 @@
         <f aca="false">B16+0-B$3</f>
         <v>0.523611111111111</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="13" t="n">
         <f aca="false">C16*24*60*60</f>
         <v>45240</v>
       </c>
@@ -10930,23 +11115,27 @@
       </c>
       <c r="F16" s="28" t="n">
         <f aca="false">(E16-E17)/(D16-D17)</f>
-        <v>-0.00034090909090909</v>
+        <v>-0.000340909090779958</v>
       </c>
       <c r="J16" s="17" t="n">
-        <f aca="false">E$3*EXP(-D14/K$2)</f>
-        <v>53.9833491121531</v>
+        <f aca="false">Q$3*EXP(-D14/K$2)+N$2</f>
+        <v>52.8323070859995</v>
       </c>
       <c r="K16" s="17" t="n">
         <f aca="false">J16-E14</f>
-        <v>0.983349112153078</v>
+        <v>-0.167692914000455</v>
       </c>
       <c r="L16" s="17" t="n">
         <f aca="false">K16^2</f>
-        <v>0.966975476372248</v>
+        <v>0.0281209134059639</v>
       </c>
       <c r="P16" s="15" t="n">
         <f aca="false">D16+F$66</f>
-        <v>96722.2929829346</v>
+        <v>85990.8617969237</v>
+      </c>
+      <c r="Q16" s="14" t="n">
+        <f aca="false">E16-N$2</f>
+        <v>29.6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10955,34 +11144,38 @@
       </c>
       <c r="C17" s="12" t="n">
         <f aca="false">B17+0-B$3</f>
-        <v>0.554166666666667</v>
-      </c>
-      <c r="D17" s="16" t="n">
+        <v>0.554166666678241</v>
+      </c>
+      <c r="D17" s="13" t="n">
         <f aca="false">C17*24*60*60</f>
-        <v>47880</v>
+        <v>47880.000001</v>
       </c>
       <c r="E17" s="22" t="n">
         <v>48.7</v>
       </c>
       <c r="F17" s="28" t="n">
         <f aca="false">(E17-E18)/(D17-D18)</f>
-        <v>-0.00032051282051282</v>
+        <v>-0.000320512820553912</v>
       </c>
       <c r="J17" s="17" t="n">
-        <f aca="false">E$3*EXP(-D15/K$2)</f>
-        <v>52.3577254366566</v>
+        <f aca="false">Q$3*EXP(-D15/K$2)+N$2</f>
+        <v>51.245573643619</v>
       </c>
       <c r="K17" s="17" t="n">
         <f aca="false">J17-E15</f>
-        <v>0.957725436656631</v>
+        <v>-0.154426356380966</v>
       </c>
       <c r="L17" s="17" t="n">
         <f aca="false">K17^2</f>
-        <v>0.917238012019134</v>
+        <v>0.0238474995451013</v>
       </c>
       <c r="P17" s="15" t="n">
         <f aca="false">D17+F$66</f>
-        <v>99362.2929829346</v>
+        <v>88630.8617979237</v>
+      </c>
+      <c r="Q17" s="14" t="n">
+        <f aca="false">E17-N$2</f>
+        <v>28.7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10993,7 +11186,7 @@
         <f aca="false">B18+0-B$3</f>
         <v>0.644444444444444</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="13" t="n">
         <f aca="false">C18*24*60*60</f>
         <v>55680</v>
       </c>
@@ -11002,23 +11195,27 @@
       </c>
       <c r="F18" s="28" t="n">
         <f aca="false">(E18-E19)/(D18-D19)</f>
-        <v>-0.000267072346179852</v>
+        <v>-0.000267072346170823</v>
       </c>
       <c r="J18" s="17" t="n">
-        <f aca="false">E$3*EXP(-D16/K$2)</f>
-        <v>50.5193054435621</v>
+        <f aca="false">Q$3*EXP(-D16/K$2)+N$2</f>
+        <v>49.4876131739404</v>
       </c>
       <c r="K18" s="17" t="n">
         <f aca="false">J18-E16</f>
-        <v>0.919305443562074</v>
+        <v>-0.112386826059563</v>
       </c>
       <c r="L18" s="17" t="n">
         <f aca="false">K18^2</f>
-        <v>0.845122498562861</v>
+        <v>0.0126307986717424</v>
       </c>
       <c r="P18" s="15" t="n">
         <f aca="false">D18+F$66</f>
-        <v>107162.292982935</v>
+        <v>96430.8617969237</v>
+      </c>
+      <c r="Q18" s="14" t="n">
+        <f aca="false">E18-N$2</f>
+        <v>26.2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11027,62 +11224,66 @@
       </c>
       <c r="C19" s="12" t="n">
         <f aca="false">B19+0-B$3</f>
-        <v>0.986805555555556</v>
-      </c>
-      <c r="D19" s="16" t="n">
+        <v>0.98680555556713</v>
+      </c>
+      <c r="D19" s="13" t="n">
         <f aca="false">C19*24*60*60</f>
-        <v>85260</v>
+        <v>85260.000001</v>
       </c>
       <c r="E19" s="22" t="n">
         <v>38.3</v>
       </c>
       <c r="F19" s="28" t="n">
         <f aca="false">(E19-E20)/(D19-D20)</f>
-        <v>0.000449214168425991</v>
+        <v>0.000449214168420722</v>
       </c>
       <c r="J19" s="17" t="n">
-        <f aca="false">E$3*EXP(-D17/K$2)</f>
-        <v>49.5710477824385</v>
+        <f aca="false">Q$3*EXP(-D17/K$2)+N$2</f>
+        <v>48.5961577028349</v>
       </c>
       <c r="K19" s="17" t="n">
         <f aca="false">J19-E17</f>
-        <v>0.871047782438524</v>
+        <v>-0.103842297165059</v>
       </c>
       <c r="L19" s="17" t="n">
         <f aca="false">K19^2</f>
-        <v>0.75872423929107</v>
+        <v>0.0107832226805164</v>
       </c>
       <c r="P19" s="15" t="n">
         <f aca="false">D19+F$66</f>
-        <v>136742.292982935</v>
+        <v>126010.861797924</v>
+      </c>
+      <c r="Q19" s="14" t="n">
+        <f aca="false">E19-N$2</f>
+        <v>18.3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="17" t="n">
-        <f aca="false">E$3*EXP(-D18/K$2)</f>
-        <v>46.8720921971871</v>
+        <f aca="false">Q$3*EXP(-D18/K$2)+N$2</f>
+        <v>46.1166740478528</v>
       </c>
       <c r="K20" s="17" t="n">
         <f aca="false">J20-E18</f>
-        <v>0.672092197187041</v>
+        <v>-0.0833259521471703</v>
       </c>
       <c r="L20" s="17" t="n">
         <f aca="false">K20^2</f>
-        <v>0.451707921519704</v>
+        <v>0.00694321430123252</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="17" t="n">
-        <f aca="false">E$3*EXP(-D19/K$2)</f>
-        <v>37.9060981135784</v>
+        <f aca="false">Q$3*EXP(-D19/K$2)+N$2</f>
+        <v>38.5156759649998</v>
       </c>
       <c r="K21" s="17" t="n">
         <f aca="false">J21-E19</f>
-        <v>-0.393901886421638</v>
+        <v>0.215675964999804</v>
       </c>
       <c r="L21" s="17" t="n">
         <f aca="false">K21^2</f>
-        <v>0.155158696126525</v>
+        <v>0.0465161218785965</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11093,9 +11294,9 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="26" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11104,15 +11305,15 @@
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11120,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="20" t="n">
-        <f aca="false">C25</f>
+        <f aca="false">(C$25-N$2)*EXP(-B31/K$2)+N$2</f>
         <v>100</v>
       </c>
     </row>
@@ -11130,8 +11331,8 @@
         <v>3600</v>
       </c>
       <c r="C32" s="20" t="n">
-        <f aca="false">C$31*EXP(-B32/K$2)</f>
-        <v>97.4491970186724</v>
+        <f aca="false">(C$25-N$2)*EXP(-B32/K$2)+N$2</f>
+        <v>96.7202611628967</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11140,8 +11341,8 @@
         <v>7200</v>
       </c>
       <c r="C33" s="20" t="n">
-        <f aca="false">C$31*EXP(-B33/K$2)</f>
-        <v>94.9634599958403</v>
+        <f aca="false">(C$25-N$2)*EXP(-B33/K$2)+N$2</f>
+        <v>93.5749809112884</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11150,8 +11351,8 @@
         <v>10800</v>
       </c>
       <c r="C34" s="20" t="n">
-        <f aca="false">C$31*EXP(-B34/K$2)</f>
-        <v>92.5411292270946</v>
+        <f aca="false">(C$25-N$2)*EXP(-B34/K$2)+N$2</f>
+        <v>90.5586468821148</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11160,8 +11361,8 @@
         <v>14400</v>
       </c>
       <c r="C35" s="20" t="n">
-        <f aca="false">C$31*EXP(-B35/K$2)</f>
-        <v>90.1805873438156</v>
+        <f aca="false">(C$25-N$2)*EXP(-B35/K$2)+N$2</f>
+        <v>87.6659727012057</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11170,8 +11371,8 @@
         <v>18000</v>
       </c>
       <c r="C36" s="20" t="n">
-        <f aca="false">C$31*EXP(-B36/K$2)</f>
-        <v>87.8802582332708</v>
+        <f aca="false">(C$25-N$2)*EXP(-B36/K$2)+N$2</f>
+        <v>84.8918887184742</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11180,8 +11381,8 @@
         <v>21600</v>
       </c>
       <c r="C37" s="20" t="n">
-        <f aca="false">C$31*EXP(-B37/K$2)</f>
-        <v>85.6386059862582</v>
+        <f aca="false">(C$25-N$2)*EXP(-B37/K$2)+N$2</f>
+        <v>82.2315331229371</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11190,8 +11391,8 @@
         <v>25200</v>
       </c>
       <c r="C38" s="20" t="n">
-        <f aca="false">C$31*EXP(-B38/K$2)</f>
-        <v>83.4541338715933</v>
+        <f aca="false">(C$25-N$2)*EXP(-B38/K$2)+N$2</f>
+        <v>79.6802434219899</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11200,8 +11401,8 @@
         <v>28800</v>
       </c>
       <c r="C39" s="20" t="n">
-        <f aca="false">C$31*EXP(-B39/K$2)</f>
-        <v>81.3253833367556</v>
+        <f aca="false">(C$25-N$2)*EXP(-B39/K$2)+N$2</f>
+        <v>77.2335482700039</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11210,8 +11411,8 @@
         <v>32400</v>
       </c>
       <c r="C40" s="20" t="n">
-        <f aca="false">C$31*EXP(-B40/K$2)</f>
-        <v>79.2509330340255</v>
+        <f aca="false">(C$25-N$2)*EXP(-B40/K$2)+N$2</f>
+        <v>74.8871596319245</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11220,8 +11421,8 @@
         <v>36000</v>
       </c>
       <c r="C41" s="20" t="n">
-        <f aca="false">C$31*EXP(-B41/K$2)</f>
-        <v>77.2293978714637</v>
+        <f aca="false">(C$25-N$2)*EXP(-B41/K$2)+N$2</f>
+        <v>72.6369652681355</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11230,8 +11431,8 @@
         <v>39600</v>
       </c>
       <c r="C42" s="20" t="n">
-        <f aca="false">C$31*EXP(-B42/K$2)</f>
-        <v>75.259428088097</v>
+        <f aca="false">(C$25-N$2)*EXP(-B42/K$2)+N$2</f>
+        <v>70.479021527421</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11240,8 +11441,8 @@
         <v>43200</v>
       </c>
       <c r="C43" s="20" t="n">
-        <f aca="false">C$31*EXP(-B43/K$2)</f>
-        <v>73.3397083526957</v>
+        <f aca="false">(C$25-N$2)*EXP(-B43/K$2)+N$2</f>
+        <v>68.4095464353903</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11250,8 +11451,8 @@
         <v>46800</v>
       </c>
       <c r="C44" s="20" t="n">
-        <f aca="false">C$31*EXP(-B44/K$2)</f>
-        <v>71.4689568855382</v>
+        <f aca="false">(C$25-N$2)*EXP(-B44/K$2)+N$2</f>
+        <v>66.4249130662565</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11260,8 +11461,8 @@
         <v>50400</v>
       </c>
       <c r="C45" s="20" t="n">
-        <f aca="false">C$31*EXP(-B45/K$2)</f>
-        <v>69.6459246025782</v>
+        <f aca="false">(C$25-N$2)*EXP(-B45/K$2)+N$2</f>
+        <v>64.5216431863497</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11270,8 +11471,8 @@
         <v>54000</v>
       </c>
       <c r="C46" s="20" t="n">
-        <f aca="false">C$31*EXP(-B46/K$2)</f>
-        <v>67.8693942814424</v>
+        <f aca="false">(C$25-N$2)*EXP(-B46/K$2)+N$2</f>
+        <v>62.6964011582256</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11280,8 +11481,8 @@
         <v>57600</v>
       </c>
       <c r="C47" s="20" t="n">
-        <f aca="false">C$31*EXP(-B47/K$2)</f>
-        <v>66.1381797487024</v>
+        <f aca="false">(C$25-N$2)*EXP(-B47/K$2)+N$2</f>
+        <v>60.9459880946859</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11290,8 +11491,8 @@
         <v>61200</v>
       </c>
       <c r="C48" s="20" t="n">
-        <f aca="false">C$31*EXP(-B48/K$2)</f>
-        <v>64.4511250878767</v>
+        <f aca="false">(C$25-N$2)*EXP(-B48/K$2)+N$2</f>
+        <v>59.2673362524645</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11300,8 +11501,8 @@
         <v>64800</v>
       </c>
       <c r="C49" s="20" t="n">
-        <f aca="false">C$31*EXP(-B49/K$2)</f>
-        <v>62.807103867636</v>
+        <f aca="false">(C$25-N$2)*EXP(-B49/K$2)+N$2</f>
+        <v>57.6575036557544</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11310,8 +11511,8 @@
         <v>68400</v>
       </c>
       <c r="C50" s="20" t="n">
-        <f aca="false">C$31*EXP(-B50/K$2)</f>
-        <v>61.2050183896948</v>
+        <f aca="false">(C$25-N$2)*EXP(-B50/K$2)+N$2</f>
+        <v>56.1136689401527</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11320,8 +11521,8 @@
         <v>72000</v>
       </c>
       <c r="C51" s="20" t="n">
-        <f aca="false">C$31*EXP(-B51/K$2)</f>
-        <v>59.6437989558884</v>
+        <f aca="false">(C$25-N$2)*EXP(-B51/K$2)+N$2</f>
+        <v>54.6331264079863</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11330,8 +11531,8 @@
         <v>75600</v>
       </c>
       <c r="C52" s="20" t="n">
-        <f aca="false">C$31*EXP(-B52/K$2)</f>
-        <v>58.1224031539445</v>
+        <f aca="false">(C$25-N$2)*EXP(-B52/K$2)+N$2</f>
+        <v>53.2132812863541</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11340,8 +11541,8 @@
         <v>79200</v>
       </c>
       <c r="C53" s="20" t="n">
-        <f aca="false">C$31*EXP(-B53/K$2)</f>
-        <v>56.6398151614745</v>
+        <f aca="false">(C$25-N$2)*EXP(-B53/K$2)+N$2</f>
+        <v>51.8516451795729</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11350,8 +11551,8 @@
         <v>82800</v>
       </c>
       <c r="C54" s="20" t="n">
-        <f aca="false">C$31*EXP(-B54/K$2)</f>
-        <v>55.1950450677171</v>
+        <f aca="false">(C$25-N$2)*EXP(-B54/K$2)+N$2</f>
+        <v>50.5458317080594</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11360,8 +11561,8 @@
         <v>86400</v>
       </c>
       <c r="C55" s="20" t="n">
-        <f aca="false">C$31*EXP(-B55/K$2)</f>
-        <v>53.7871282125847</v>
+        <f aca="false">(C$25-N$2)*EXP(-B55/K$2)+N$2</f>
+        <v>49.2935523260026</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11370,8 +11571,8 @@
         <v>90000</v>
       </c>
       <c r="C56" s="20" t="n">
-        <f aca="false">C$31*EXP(-B56/K$2)</f>
-        <v>52.4151245425676</v>
+        <f aca="false">(C$25-N$2)*EXP(-B56/K$2)+N$2</f>
+        <v>48.0926123104988</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11380,26 +11581,26 @@
         <v>93600</v>
       </c>
       <c r="C57" s="20" t="n">
-        <f aca="false">C$31*EXP(-B57/K$2)</f>
-        <v>51.0781179830692</v>
+        <f aca="false">(C$25-N$2)*EXP(-B57/K$2)+N$2</f>
+        <v>46.9409069151184</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>4200</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S57" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11408,23 +11609,23 @@
         <v>97200</v>
       </c>
       <c r="C58" s="20" t="n">
-        <f aca="false">C$31*EXP(-B58/K$2)</f>
-        <v>49.775215826751</v>
+        <f aca="false">(C$25-N$2)*EXP(-B58/K$2)+N$2</f>
+        <v>45.8364176811647</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>60</v>
       </c>
       <c r="F58" s="9" t="n">
-        <f aca="false">-LN(E58/C31)*K2</f>
-        <v>71170.4108346906</v>
+        <f aca="false">-LN((E58-N$2)/(C$25-N$2))*K$2</f>
+        <v>59610.1806467101</v>
       </c>
       <c r="P58" s="0" t="n">
         <f aca="false">P59-60*60</f>
-        <v>67570.4108346906</v>
+        <v>56010.1806467101</v>
       </c>
       <c r="Q58" s="0" t="n">
         <f aca="false">C$31*EXP(-P58/K$2)</f>
-        <v>61.5705432529149</v>
+        <v>52.1374658971374</v>
       </c>
       <c r="R58" s="0" t="n">
         <f aca="false">P58-P59</f>
@@ -11432,7 +11633,7 @@
       </c>
       <c r="S58" s="0" t="n">
         <f aca="false">R58*F61+E58</f>
-        <v>61.55034</v>
+        <v>61.674432</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11441,22 +11642,22 @@
         <v>100800</v>
       </c>
       <c r="C59" s="20" t="n">
-        <f aca="false">C$31*EXP(-B59/K$2)</f>
-        <v>48.50554813748</v>
+        <f aca="false">(C$25-N$2)*EXP(-B59/K$2)+N$2</f>
+        <v>44.7772089001579</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>1.6</v>
       </c>
       <c r="P59" s="9" t="n">
         <f aca="false">F58</f>
-        <v>71170.4108346906</v>
+        <v>59610.1806467101</v>
       </c>
       <c r="Q59" s="0" t="n">
         <f aca="false">C$31*EXP(-P59/K$2)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R59" s="0" t="n">
         <f aca="false">P59-P59</f>
@@ -11473,20 +11674,20 @@
         <v>104400</v>
       </c>
       <c r="C60" s="20" t="n">
-        <f aca="false">C$31*EXP(-B60/K$2)</f>
-        <v>47.2682671694799</v>
+        <f aca="false">(C$25-N$2)*EXP(-B60/K$2)+N$2</f>
+        <v>43.7614242213471</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H60" s="21"/>
       <c r="P60" s="0" t="n">
         <f aca="false">P59+60*60</f>
-        <v>74770.4108346906</v>
+        <v>63210.1806467101</v>
       </c>
       <c r="Q60" s="0" t="n">
         <f aca="false">C$31*EXP(-P60/K$2)</f>
-        <v>58.4695182112034</v>
+        <v>47.9501632268104</v>
       </c>
       <c r="R60" s="0" t="n">
         <f aca="false">P60-P59</f>
@@ -11494,7 +11695,7 @@
       </c>
       <c r="S60" s="0" t="n">
         <f aca="false">R60*F61+E58</f>
-        <v>58.44966</v>
+        <v>58.325568</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11503,19 +11704,19 @@
         <v>108000</v>
       </c>
       <c r="C61" s="20" t="n">
-        <f aca="false">C$31*EXP(-B61/K$2)</f>
-        <v>46.0625468012989</v>
+        <f aca="false">(C$25-N$2)*EXP(-B61/K$2)+N$2</f>
+        <v>42.7872833983016</v>
       </c>
       <c r="F61" s="17" t="n">
-        <f aca="false">-C31/K2*EXP(-F58/K2)</f>
-        <v>-0.000430649999999999</v>
+        <f aca="false">-(C25-N$2)/K2*EXP(-F58/K2)</f>
+        <v>-0.00046512</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I61" s="18" t="n">
         <f aca="false">-(I59*I57*F61)</f>
-        <v>2.893968</v>
+        <v>3.1256064</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11524,15 +11725,15 @@
         <v>111600</v>
       </c>
       <c r="C62" s="20" t="n">
-        <f aca="false">C$31*EXP(-B62/K$2)</f>
-        <v>44.8875819842159</v>
+        <f aca="false">(C$25-N$2)*EXP(-B62/K$2)+N$2</f>
+        <v>41.8530791688829</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" s="23" t="n">
         <f aca="false">I61/1000</f>
-        <v>0.00289396799999999</v>
+        <v>0.0031256064</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11541,8 +11742,8 @@
         <v>115200</v>
       </c>
       <c r="C63" s="20" t="n">
-        <f aca="false">C$31*EXP(-B63/K$2)</f>
-        <v>43.7425882047167</v>
+        <f aca="false">(C$25-N$2)*EXP(-B63/K$2)+N$2</f>
+        <v>40.957174263127</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11551,8 +11752,8 @@
         <v>118800</v>
       </c>
       <c r="C64" s="20" t="n">
-        <f aca="false">C$31*EXP(-B64/K$2)</f>
-        <v>42.6268009606809</v>
+        <f aca="false">(C$25-N$2)*EXP(-B64/K$2)+N$2</f>
+        <v>40.097998533793</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11561,14 +11762,14 @@
         <v>122400</v>
       </c>
       <c r="C65" s="20" t="n">
-        <f aca="false">C$31*EXP(-B65/K$2)</f>
-        <v>41.5394752509313</v>
+        <f aca="false">(C$25-N$2)*EXP(-B65/K$2)+N$2</f>
+        <v>39.2740462045514</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11577,15 +11778,15 @@
         <v>126000</v>
       </c>
       <c r="C66" s="20" t="n">
-        <f aca="false">C$31*EXP(-B66/K$2)</f>
-        <v>40.4798850778027</v>
+        <f aca="false">(C$25-N$2)*EXP(-B66/K$2)+N$2</f>
+        <v>38.4838732309865</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>69.107</v>
+        <v>69.808</v>
       </c>
       <c r="F66" s="9" t="n">
-        <f aca="false">-LN(E66/C31)*K$2</f>
-        <v>51482.2929829346</v>
+        <f aca="false">-LN((E66-N$2)/(C$25-N$2))*K$2</f>
+        <v>40750.8617969237</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11594,8 +11795,8 @@
         <v>129600</v>
       </c>
       <c r="C67" s="20" t="n">
-        <f aca="false">C$31*EXP(-B67/K$2)</f>
-        <v>39.4473229624001</v>
+        <f aca="false">(C$25-N$2)*EXP(-B67/K$2)+N$2</f>
+        <v>37.7260947697895</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11604,8 +11805,8 @@
         <v>133200</v>
       </c>
       <c r="C68" s="20" t="n">
-        <f aca="false">C$31*EXP(-B68/K$2)</f>
-        <v>38.4410994722213</v>
+        <f aca="false">(C$25-N$2)*EXP(-B68/K$2)+N$2</f>
+        <v>36.9993827517063</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11614,8 +11815,8 @@
         <v>136800</v>
       </c>
       <c r="C69" s="20" t="n">
-        <f aca="false">C$31*EXP(-B69/K$2)</f>
-        <v>37.4605427608288</v>
+        <f aca="false">(C$25-N$2)*EXP(-B69/K$2)+N$2</f>
+        <v>36.3024635539869</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11624,28 +11825,28 @@
         <v>140400</v>
       </c>
       <c r="C70" s="20" t="n">
-        <f aca="false">C$31*EXP(-B70/K$2)</f>
-        <v>36.5049981192641</v>
+        <f aca="false">(C$25-N$2)*EXP(-B70/K$2)+N$2</f>
+        <v>35.634115768256</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K71" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K72" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K73" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K74" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ThermosFlaskModel.xlsx
+++ b/ThermosFlaskModel.xlsx
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
@@ -154,7 +154,6 @@
     <numFmt numFmtId="170" formatCode="0.00"/>
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -595,20 +594,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>RunOne!$P$3:$P$6</c:f>
@@ -972,11 +957,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="35656813"/>
-        <c:axId val="68910199"/>
+        <c:axId val="34655633"/>
+        <c:axId val="35957590"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35656813"/>
+        <c:axId val="34655633"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,12 +1017,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68910199"/>
+        <c:crossAx val="35957590"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68910199"/>
+        <c:axId val="35957590"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1087,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35656813"/>
+        <c:crossAx val="34655633"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1717,11 +1702,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="51047142"/>
-        <c:axId val="87685454"/>
+        <c:axId val="5810586"/>
+        <c:axId val="62189246"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51047142"/>
+        <c:axId val="5810586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70000"/>
@@ -1779,12 +1764,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87685454"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="62189246"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87685454"/>
+        <c:axId val="62189246"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +1834,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51047142"/>
+        <c:crossAx val="5810586"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2005,20 +1990,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>RunTwo!$P$3:$P$8</c:f>
@@ -2394,11 +2365,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="36292475"/>
-        <c:axId val="33531277"/>
+        <c:axId val="79386438"/>
+        <c:axId val="11949924"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36292475"/>
+        <c:axId val="79386438"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2454,12 +2425,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33531277"/>
+        <c:crossAx val="11949924"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33531277"/>
+        <c:axId val="11949924"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2495,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36292475"/>
+        <c:crossAx val="79386438"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3151,11 +3122,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="23473231"/>
-        <c:axId val="65238240"/>
+        <c:axId val="11488609"/>
+        <c:axId val="73942446"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23473231"/>
+        <c:axId val="11488609"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="67500"/>
@@ -3213,12 +3184,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65238240"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="73942446"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65238240"/>
+        <c:axId val="73942446"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3283,7 +3254,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23473231"/>
+        <c:crossAx val="11488609"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3439,20 +3410,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>RunThree!$P$3:$P$8</c:f>
@@ -3816,11 +3773,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34396206"/>
-        <c:axId val="3689088"/>
+        <c:axId val="34737742"/>
+        <c:axId val="63084641"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34396206"/>
+        <c:axId val="34737742"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3876,12 +3833,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3689088"/>
+        <c:crossAx val="63084641"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3689088"/>
+        <c:axId val="63084641"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3946,7 +3903,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34396206"/>
+        <c:crossAx val="34737742"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4561,11 +4518,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="48183070"/>
-        <c:axId val="45427968"/>
+        <c:axId val="61713039"/>
+        <c:axId val="26410087"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48183070"/>
+        <c:axId val="61713039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="77500"/>
@@ -4623,12 +4580,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45427968"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="26410087"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45427968"/>
+        <c:axId val="26410087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4693,7 +4650,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48183070"/>
+        <c:crossAx val="61713039"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4881,20 +4838,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>BarnyRunNewStopperOne!$P$3:$P$19</c:f>
@@ -5336,11 +5279,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="86870534"/>
-        <c:axId val="12630789"/>
+        <c:axId val="8819624"/>
+        <c:axId val="87582706"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86870534"/>
+        <c:axId val="8819624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5396,12 +5339,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12630789"/>
+        <c:crossAx val="87582706"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12630789"/>
+        <c:axId val="87582706"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5466,7 +5409,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86870534"/>
+        <c:crossAx val="8819624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6067,7 +6010,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BarnyRunNewStopperOne!$S$57:$S$57</c:f>
+              <c:f>BarnyRunNewStopperOne!$S$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6159,15 +6102,15 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="45414188"/>
-        <c:axId val="59185309"/>
+        <c:axId val="44993457"/>
+        <c:axId val="23328255"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45414188"/>
+        <c:axId val="44993457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="75000"/>
-          <c:min val="67500"/>
+          <c:max val="65000"/>
+          <c:min val="55000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6221,12 +6164,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59185309"/>
+        <c:crossAx val="23328255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59185309"/>
+        <c:axId val="23328255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6291,7 +6234,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45414188"/>
+        <c:crossAx val="44993457"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6382,7 +6325,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BarnyRunNewStopperOne!$K$71:$K$71</c:f>
+              <c:f>BarnyRunNewStopperOne!$K$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6695,7 +6638,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BarnyRunNewStopperOne!$K$72:$K$72</c:f>
+              <c:f>BarnyRunNewStopperOne!$K$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7008,7 +6951,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BarnyRunNewStopperOne!$K$73:$K$73</c:f>
+              <c:f>BarnyRunNewStopperOne!$K$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7321,7 +7264,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BarnyRunNewStopperOne!$K$74:$K$74</c:f>
+              <c:f>BarnyRunNewStopperOne!$K$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7629,11 +7572,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="84713161"/>
-        <c:axId val="50713874"/>
+        <c:axId val="84472920"/>
+        <c:axId val="61665704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84713161"/>
+        <c:axId val="84472920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140000"/>
@@ -7691,12 +7634,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50713874"/>
+        <c:crossAx val="61665704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50713874"/>
+        <c:axId val="61665704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7761,7 +7704,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84713161"/>
+        <c:crossAx val="84472920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8106,8 +8049,8 @@
   </sheetPr>
   <dimension ref="B1:S62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P41" activeCellId="0" sqref="P41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8568,7 +8511,7 @@
       </c>
       <c r="Q41" s="0" t="n">
         <f aca="false">C$23*EXP(-P41/I2)</f>
-        <v>51.9269231125672</v>
+        <v>51.9269231125671</v>
       </c>
       <c r="R41" s="0" t="n">
         <f aca="false">P41-P42</f>
@@ -8881,8 +8824,8 @@
   </sheetPr>
   <dimension ref="B1:S62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L51" activeCellId="0" sqref="L51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9477,11 +9420,11 @@
       </c>
       <c r="Q43" s="0" t="n">
         <f aca="false">C$23*EXP(-P43/I$2)</f>
-        <v>48.0524635872227</v>
+        <v>48.0524635872226</v>
       </c>
       <c r="R43" s="0" t="n">
         <f aca="false">P43-P42</f>
-        <v>3600</v>
+        <v>3600.00000000001</v>
       </c>
       <c r="S43" s="0" t="n">
         <f aca="false">R43*F44+E41</f>
@@ -9728,8 +9671,8 @@
   </sheetPr>
   <dimension ref="B1:S62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q51" activeCellId="0" sqref="Q51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10210,7 +10153,7 @@
       </c>
       <c r="Q41" s="0" t="n">
         <f aca="false">C$23*EXP(-P41/I$2)</f>
-        <v>51.7360011011415</v>
+        <v>51.7360011011416</v>
       </c>
       <c r="R41" s="0" t="n">
         <f aca="false">P41-P42</f>
@@ -10242,7 +10185,7 @@
       </c>
       <c r="Q42" s="0" t="n">
         <f aca="false">C$23*EXP(-P42/I$2)</f>
-        <v>50</v>
+        <v>50.0000000000001</v>
       </c>
       <c r="R42" s="0" t="n">
         <f aca="false">P42-P42</f>
@@ -10272,7 +10215,7 @@
       </c>
       <c r="Q43" s="0" t="n">
         <f aca="false">C$23*EXP(-P43/I$2)</f>
-        <v>48.3222504018549</v>
+        <v>48.322250401855</v>
       </c>
       <c r="R43" s="0" t="n">
         <f aca="false">P43-P42</f>
@@ -10523,8 +10466,8 @@
   </sheetPr>
   <dimension ref="B1:S74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M59" activeCellId="0" sqref="M59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I61" activeCellId="0" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10724,7 +10667,7 @@
       </c>
       <c r="L6" s="17" t="n">
         <f aca="false">K6^2</f>
-        <v>2.83387213918727E-007</v>
+        <v>2.8338721391873E-007</v>
       </c>
       <c r="M6" s="17"/>
       <c r="P6" s="15" t="n">
@@ -11687,7 +11630,7 @@
       </c>
       <c r="Q60" s="0" t="n">
         <f aca="false">C$31*EXP(-P60/K$2)</f>
-        <v>47.9501632268104</v>
+        <v>47.9501632268105</v>
       </c>
       <c r="R60" s="0" t="n">
         <f aca="false">P60-P59</f>

--- a/ThermosFlaskModel.xlsx
+++ b/ThermosFlaskModel.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="29">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -125,7 +125,13 @@
     <t xml:space="preserve">Meas. Differentials</t>
   </si>
   <si>
-    <t xml:space="preserve">(K/s)</t>
+    <t xml:space="preserve">Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(℃/s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
   </si>
   <si>
     <t xml:space="preserve">Run One (SJH)</t>
@@ -297,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -406,11 +412,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -957,11 +971,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34655633"/>
-        <c:axId val="35957590"/>
+        <c:axId val="82825195"/>
+        <c:axId val="19961081"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34655633"/>
+        <c:axId val="82825195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,12 +1031,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35957590"/>
+        <c:crossAx val="19961081"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35957590"/>
+        <c:axId val="19961081"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,7 +1101,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34655633"/>
+        <c:crossAx val="82825195"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1702,11 +1716,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="5810586"/>
-        <c:axId val="62189246"/>
+        <c:axId val="37621505"/>
+        <c:axId val="91943158"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5810586"/>
+        <c:axId val="37621505"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70000"/>
@@ -1764,12 +1778,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62189246"/>
+        <c:crossAx val="91943158"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62189246"/>
+        <c:axId val="91943158"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +1848,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5810586"/>
+        <c:crossAx val="37621505"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2365,11 +2379,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79386438"/>
-        <c:axId val="11949924"/>
+        <c:axId val="18284552"/>
+        <c:axId val="9095373"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79386438"/>
+        <c:axId val="18284552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,12 +2439,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11949924"/>
+        <c:crossAx val="9095373"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="11949924"/>
+        <c:axId val="9095373"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,7 +2509,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79386438"/>
+        <c:crossAx val="18284552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3122,11 +3136,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="11488609"/>
-        <c:axId val="73942446"/>
+        <c:axId val="49531147"/>
+        <c:axId val="13729076"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11488609"/>
+        <c:axId val="49531147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="67500"/>
@@ -3184,12 +3198,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73942446"/>
+        <c:crossAx val="13729076"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73942446"/>
+        <c:axId val="13729076"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3254,7 +3268,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11488609"/>
+        <c:crossAx val="49531147"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3773,11 +3787,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34737742"/>
-        <c:axId val="63084641"/>
+        <c:axId val="1890746"/>
+        <c:axId val="72545791"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34737742"/>
+        <c:axId val="1890746"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,12 +3847,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63084641"/>
+        <c:crossAx val="72545791"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63084641"/>
+        <c:axId val="72545791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3903,7 +3917,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34737742"/>
+        <c:crossAx val="1890746"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4518,11 +4532,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="61713039"/>
-        <c:axId val="26410087"/>
+        <c:axId val="8711831"/>
+        <c:axId val="19309246"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61713039"/>
+        <c:axId val="8711831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="77500"/>
@@ -4580,12 +4594,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26410087"/>
+        <c:crossAx val="19309246"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26410087"/>
+        <c:axId val="19309246"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4650,7 +4664,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61713039"/>
+        <c:crossAx val="8711831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5279,11 +5293,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8819624"/>
-        <c:axId val="87582706"/>
+        <c:axId val="12887040"/>
+        <c:axId val="19603494"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8819624"/>
+        <c:axId val="12887040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5339,12 +5353,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87582706"/>
+        <c:crossAx val="19603494"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87582706"/>
+        <c:axId val="19603494"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5409,7 +5423,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8819624"/>
+        <c:crossAx val="12887040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6102,11 +6116,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="44993457"/>
-        <c:axId val="23328255"/>
+        <c:axId val="55651993"/>
+        <c:axId val="75047830"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44993457"/>
+        <c:axId val="55651993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="65000"/>
@@ -6164,12 +6178,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23328255"/>
+        <c:crossAx val="75047830"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="23328255"/>
+        <c:axId val="75047830"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6234,7 +6248,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44993457"/>
+        <c:crossAx val="55651993"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7572,11 +7586,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="84472920"/>
-        <c:axId val="61665704"/>
+        <c:axId val="73878851"/>
+        <c:axId val="75137730"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84472920"/>
+        <c:axId val="73878851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140000"/>
@@ -7634,12 +7648,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61665704"/>
+        <c:crossAx val="75137730"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61665704"/>
+        <c:axId val="75137730"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7704,7 +7718,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84472920"/>
+        <c:crossAx val="73878851"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7958,7 +7972,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>778320</xdr:colOff>
+      <xdr:colOff>673560</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
@@ -7982,13 +7996,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>650880</xdr:colOff>
+      <xdr:colOff>546120</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>61920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>624240</xdr:colOff>
+      <xdr:colOff>519480</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
@@ -8012,13 +8026,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>571320</xdr:colOff>
+      <xdr:colOff>466560</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>154440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>544680</xdr:colOff>
+      <xdr:colOff>439920</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
@@ -10466,14 +10480,14 @@
   </sheetPr>
   <dimension ref="B1:S74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I61" activeCellId="0" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="12.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="12.65"/>
   </cols>
   <sheetData>
@@ -10487,11 +10501,14 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>2</v>
@@ -10519,8 +10536,11 @@
       <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>22</v>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="K2" s="9" t="n">
         <f aca="false">1/0.000011628</f>
@@ -10547,12 +10567,16 @@
       <c r="D3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="19" t="n">
         <v>69.9</v>
       </c>
-      <c r="F3" s="28" t="n">
+      <c r="F3" s="27" t="n">
         <f aca="false">(E3-E4)/(D3-D4)</f>
         <v>-0.000574712643347866</v>
+      </c>
+      <c r="G3" s="28" t="n">
+        <f aca="false">F3*I$57*I$59</f>
+        <v>-3.86206896329766</v>
       </c>
       <c r="P3" s="15" t="n">
         <f aca="false">D3+F$66</f>
@@ -10575,12 +10599,16 @@
         <f aca="false">C4*24*60*60</f>
         <v>1740.000001</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="19" t="n">
         <v>68.9</v>
       </c>
-      <c r="F4" s="28" t="n">
+      <c r="F4" s="27" t="n">
         <f aca="false">(E4-E5)/(D4-D5)</f>
         <v>-0.000530303030303033</v>
+      </c>
+      <c r="G4" s="28" t="n">
+        <f aca="false">F4*I$57*I$59</f>
+        <v>-3.56363636363638</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>10</v>
@@ -10606,12 +10634,16 @@
         <f aca="false">C5*24*60*60</f>
         <v>3060.000001</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="19" t="n">
         <v>68.2</v>
       </c>
-      <c r="F5" s="28" t="n">
+      <c r="F5" s="27" t="n">
         <f aca="false">(E5-E6)/(D5-D6)</f>
         <v>-0.000606060606060615</v>
+      </c>
+      <c r="G5" s="28" t="n">
+        <f aca="false">F5*I$57*I$59</f>
+        <v>-4.07272727272733</v>
       </c>
       <c r="J5" s="17" t="n">
         <f aca="false">Q$3*EXP(-D3/K$2)+N$2</f>
@@ -10650,12 +10682,16 @@
         <f aca="false">C6*24*60*60</f>
         <v>3720.000001</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="19" t="n">
         <v>67.8</v>
       </c>
-      <c r="F6" s="28" t="n">
+      <c r="F6" s="27" t="n">
         <f aca="false">(E6-E7)/(D6-D7)</f>
         <v>-0.000645161290322582</v>
+      </c>
+      <c r="G6" s="28" t="n">
+        <f aca="false">F6*I$57*I$59</f>
+        <v>-4.33548387096775</v>
       </c>
       <c r="J6" s="17" t="n">
         <f aca="false">Q$3*EXP(-D4/K$2)+N$2</f>
@@ -10691,12 +10727,16 @@
         <f aca="false">C7*24*60*60</f>
         <v>5580.000001</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="19" t="n">
         <v>66.6</v>
       </c>
-      <c r="F7" s="28" t="n">
+      <c r="F7" s="27" t="n">
         <f aca="false">(E7-E8)/(D7-D8)</f>
         <v>-0.000531914893617021</v>
+      </c>
+      <c r="G7" s="28" t="n">
+        <f aca="false">F7*I$57*I$59</f>
+        <v>-3.57446808510638</v>
       </c>
       <c r="J7" s="17" t="n">
         <f aca="false">Q$3*EXP(-D5/K$2)+N$2</f>
@@ -10732,12 +10772,16 @@
         <f aca="false">C8*24*60*60</f>
         <v>8400.000001</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="19" t="n">
         <v>65.1</v>
       </c>
-      <c r="F8" s="28" t="n">
+      <c r="F8" s="27" t="n">
         <f aca="false">(E8-E9)/(D8-D9)</f>
         <v>-0.000537634408602149</v>
+      </c>
+      <c r="G8" s="28" t="n">
+        <f aca="false">F8*I$57*I$59</f>
+        <v>-3.61290322580644</v>
       </c>
       <c r="J8" s="17" t="n">
         <f aca="false">Q$3*EXP(-D6/K$2)+N$2</f>
@@ -10773,12 +10817,16 @@
         <f aca="false">C9*24*60*60</f>
         <v>12120.000001</v>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="19" t="n">
         <v>63.1</v>
       </c>
-      <c r="F9" s="28" t="n">
+      <c r="F9" s="27" t="n">
         <f aca="false">(E9-E10)/(D9-D10)</f>
         <v>-0.00050925925925926</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <f aca="false">F9*I$57*I$59</f>
+        <v>-3.42222222222223</v>
       </c>
       <c r="J9" s="17" t="n">
         <f aca="false">Q$3*EXP(-D7/K$2)+N$2</f>
@@ -10813,12 +10861,16 @@
         <f aca="false">C10*24*60*60</f>
         <v>14280.000001</v>
       </c>
-      <c r="E10" s="22" t="n">
+      <c r="E10" s="19" t="n">
         <v>62</v>
       </c>
-      <c r="F10" s="28" t="n">
+      <c r="F10" s="27" t="n">
         <f aca="false">(E10-E11)/(D10-D11)</f>
         <v>-0.000459770114942529</v>
+      </c>
+      <c r="G10" s="28" t="n">
+        <f aca="false">F10*I$57*I$59</f>
+        <v>-3.08965517241379</v>
       </c>
       <c r="J10" s="17" t="n">
         <f aca="false">Q$3*EXP(-D8/K$2)+N$2</f>
@@ -10853,12 +10905,16 @@
         <f aca="false">C11*24*60*60</f>
         <v>17760.000001</v>
       </c>
-      <c r="E11" s="22" t="n">
+      <c r="E11" s="19" t="n">
         <v>60.4</v>
       </c>
-      <c r="F11" s="28" t="n">
+      <c r="F11" s="27" t="n">
         <f aca="false">(E11-E12)/(D11-D12)</f>
         <v>-0.000465116279069765</v>
+      </c>
+      <c r="G11" s="28" t="n">
+        <f aca="false">F11*I$57*I$59</f>
+        <v>-3.12558139534882</v>
       </c>
       <c r="J11" s="17" t="n">
         <f aca="false">Q$3*EXP(-D9/K$2)+N$2</f>
@@ -10893,12 +10949,16 @@
         <f aca="false">C12*24*60*60</f>
         <v>20340.000001</v>
       </c>
-      <c r="E12" s="22" t="n">
+      <c r="E12" s="19" t="n">
         <v>59.2</v>
       </c>
-      <c r="F12" s="28" t="n">
+      <c r="F12" s="27" t="n">
         <f aca="false">(E12-E13)/(D12-D13)</f>
         <v>-0.000396825396825397</v>
+      </c>
+      <c r="G12" s="28" t="n">
+        <f aca="false">F12*I$57*I$59</f>
+        <v>-2.66666666666667</v>
       </c>
       <c r="J12" s="17" t="n">
         <f aca="false">Q$3*EXP(-D10/K$2)+N$2</f>
@@ -10933,12 +10993,16 @@
         <f aca="false">C13*24*60*60</f>
         <v>29160.000001</v>
       </c>
-      <c r="E13" s="22" t="n">
+      <c r="E13" s="19" t="n">
         <v>55.7</v>
       </c>
-      <c r="F13" s="28" t="n">
+      <c r="F13" s="27" t="n">
         <f aca="false">(E13-E14)/(D13-D14)</f>
         <v>-0.000394736842162974</v>
+      </c>
+      <c r="G13" s="28" t="n">
+        <f aca="false">F13*I$57*I$59</f>
+        <v>-2.65263157933519</v>
       </c>
       <c r="J13" s="17" t="n">
         <f aca="false">Q$3*EXP(-D11/K$2)+N$2</f>
@@ -10973,12 +11037,16 @@
         <f aca="false">C14*24*60*60</f>
         <v>36000</v>
       </c>
-      <c r="E14" s="22" t="n">
+      <c r="E14" s="19" t="n">
         <v>53</v>
       </c>
-      <c r="F14" s="28" t="n">
+      <c r="F14" s="27" t="n">
         <f aca="false">(E14-E15)/(D14-D15)</f>
         <v>-0.000375586854371928</v>
+      </c>
+      <c r="G14" s="28" t="n">
+        <f aca="false">F14*I$57*I$59</f>
+        <v>-2.52394366137936</v>
       </c>
       <c r="J14" s="17" t="n">
         <f aca="false">Q$3*EXP(-D12/K$2)+N$2</f>
@@ -11013,12 +11081,16 @@
         <f aca="false">C15*24*60*60</f>
         <v>40260.000001</v>
       </c>
-      <c r="E15" s="22" t="n">
+      <c r="E15" s="19" t="n">
         <v>51.4</v>
       </c>
-      <c r="F15" s="28" t="n">
+      <c r="F15" s="27" t="n">
         <f aca="false">(E15-E16)/(D15-D16)</f>
         <v>-0.000361445783205109</v>
+      </c>
+      <c r="G15" s="28" t="n">
+        <f aca="false">F15*I$57*I$59</f>
+        <v>-2.42891566313833</v>
       </c>
       <c r="J15" s="17" t="n">
         <f aca="false">Q$3*EXP(-D13/K$2)+N$2</f>
@@ -11053,12 +11125,16 @@
         <f aca="false">C16*24*60*60</f>
         <v>45240</v>
       </c>
-      <c r="E16" s="22" t="n">
+      <c r="E16" s="19" t="n">
         <v>49.6</v>
       </c>
-      <c r="F16" s="28" t="n">
+      <c r="F16" s="27" t="n">
         <f aca="false">(E16-E17)/(D16-D17)</f>
         <v>-0.000340909090779958</v>
+      </c>
+      <c r="G16" s="28" t="n">
+        <f aca="false">F16*I$57*I$59</f>
+        <v>-2.29090909004132</v>
       </c>
       <c r="J16" s="17" t="n">
         <f aca="false">Q$3*EXP(-D14/K$2)+N$2</f>
@@ -11093,12 +11169,16 @@
         <f aca="false">C17*24*60*60</f>
         <v>47880.000001</v>
       </c>
-      <c r="E17" s="22" t="n">
+      <c r="E17" s="19" t="n">
         <v>48.7</v>
       </c>
-      <c r="F17" s="28" t="n">
+      <c r="F17" s="27" t="n">
         <f aca="false">(E17-E18)/(D17-D18)</f>
         <v>-0.000320512820553912</v>
+      </c>
+      <c r="G17" s="28" t="n">
+        <f aca="false">F17*I$57*I$59</f>
+        <v>-2.15384615412229</v>
       </c>
       <c r="J17" s="17" t="n">
         <f aca="false">Q$3*EXP(-D15/K$2)+N$2</f>
@@ -11133,12 +11213,16 @@
         <f aca="false">C18*24*60*60</f>
         <v>55680</v>
       </c>
-      <c r="E18" s="22" t="n">
+      <c r="E18" s="19" t="n">
         <v>46.2</v>
       </c>
-      <c r="F18" s="28" t="n">
+      <c r="F18" s="27" t="n">
         <f aca="false">(E18-E19)/(D18-D19)</f>
         <v>-0.000267072346170823</v>
+      </c>
+      <c r="G18" s="28" t="n">
+        <f aca="false">F18*I$57*I$59</f>
+        <v>-1.79472616626793</v>
       </c>
       <c r="J18" s="17" t="n">
         <f aca="false">Q$3*EXP(-D16/K$2)+N$2</f>
@@ -11173,13 +11257,11 @@
         <f aca="false">C19*24*60*60</f>
         <v>85260.000001</v>
       </c>
-      <c r="E19" s="22" t="n">
+      <c r="E19" s="19" t="n">
         <v>38.3</v>
       </c>
-      <c r="F19" s="28" t="n">
-        <f aca="false">(E19-E20)/(D19-D20)</f>
-        <v>0.000449214168420722</v>
-      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
       <c r="J19" s="17" t="n">
         <f aca="false">Q$3*EXP(-D17/K$2)+N$2</f>
         <v>48.5961577028349</v>
@@ -11774,22 +11856,22 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K71" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K72" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K73" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K74" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ThermosFlaskModel.xlsx
+++ b/ThermosFlaskModel.xlsx
@@ -125,7 +125,7 @@
     <t xml:space="preserve">Meas. Differentials</t>
   </si>
   <si>
-    <t xml:space="preserve">Power</t>
+    <t xml:space="preserve">Energy change</t>
   </si>
   <si>
     <t xml:space="preserve">(℃/s)</t>
@@ -971,11 +971,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="82825195"/>
-        <c:axId val="19961081"/>
+        <c:axId val="30630965"/>
+        <c:axId val="24361091"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82825195"/>
+        <c:axId val="30630965"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,12 +1031,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19961081"/>
+        <c:crossAx val="24361091"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19961081"/>
+        <c:axId val="24361091"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,7 +1101,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82825195"/>
+        <c:crossAx val="30630965"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1716,11 +1716,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="37621505"/>
-        <c:axId val="91943158"/>
+        <c:axId val="76482760"/>
+        <c:axId val="46879437"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37621505"/>
+        <c:axId val="76482760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70000"/>
@@ -1778,12 +1778,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91943158"/>
+        <c:crossAx val="46879437"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91943158"/>
+        <c:axId val="46879437"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,7 +1848,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37621505"/>
+        <c:crossAx val="76482760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2379,11 +2379,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="18284552"/>
-        <c:axId val="9095373"/>
+        <c:axId val="51263705"/>
+        <c:axId val="55180389"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18284552"/>
+        <c:axId val="51263705"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,12 +2439,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9095373"/>
+        <c:crossAx val="55180389"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="9095373"/>
+        <c:axId val="55180389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,7 +2509,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18284552"/>
+        <c:crossAx val="51263705"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3136,11 +3136,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="49531147"/>
-        <c:axId val="13729076"/>
+        <c:axId val="6561013"/>
+        <c:axId val="89251800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49531147"/>
+        <c:axId val="6561013"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="67500"/>
@@ -3198,12 +3198,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13729076"/>
+        <c:crossAx val="89251800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13729076"/>
+        <c:axId val="89251800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3268,7 +3268,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49531147"/>
+        <c:crossAx val="6561013"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3787,11 +3787,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1890746"/>
-        <c:axId val="72545791"/>
+        <c:axId val="12534136"/>
+        <c:axId val="13640060"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1890746"/>
+        <c:axId val="12534136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3847,12 +3847,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72545791"/>
+        <c:crossAx val="13640060"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72545791"/>
+        <c:axId val="13640060"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3917,7 +3917,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1890746"/>
+        <c:crossAx val="12534136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4532,11 +4532,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8711831"/>
-        <c:axId val="19309246"/>
+        <c:axId val="51953558"/>
+        <c:axId val="38604341"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8711831"/>
+        <c:axId val="51953558"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="77500"/>
@@ -4594,12 +4594,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19309246"/>
+        <c:crossAx val="38604341"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19309246"/>
+        <c:axId val="38604341"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4664,7 +4664,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8711831"/>
+        <c:crossAx val="51953558"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5293,11 +5293,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="12887040"/>
-        <c:axId val="19603494"/>
+        <c:axId val="95142854"/>
+        <c:axId val="83123000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12887040"/>
+        <c:axId val="95142854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5353,12 +5353,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19603494"/>
+        <c:crossAx val="83123000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19603494"/>
+        <c:axId val="83123000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5423,7 +5423,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12887040"/>
+        <c:crossAx val="95142854"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6116,11 +6116,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="55651993"/>
-        <c:axId val="75047830"/>
+        <c:axId val="21830406"/>
+        <c:axId val="20835784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55651993"/>
+        <c:axId val="21830406"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="65000"/>
@@ -6178,12 +6178,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75047830"/>
+        <c:crossAx val="20835784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75047830"/>
+        <c:axId val="20835784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6248,7 +6248,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55651993"/>
+        <c:crossAx val="21830406"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7586,11 +7586,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="73878851"/>
-        <c:axId val="75137730"/>
+        <c:axId val="80298464"/>
+        <c:axId val="92019371"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73878851"/>
+        <c:axId val="80298464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140000"/>
@@ -7648,12 +7648,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75137730"/>
+        <c:crossAx val="92019371"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75137730"/>
+        <c:axId val="92019371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7718,7 +7718,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73878851"/>
+        <c:crossAx val="80298464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7972,7 +7972,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>673560</xdr:colOff>
+      <xdr:colOff>507960</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
@@ -7996,13 +7996,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>546120</xdr:colOff>
+      <xdr:colOff>380520</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>61920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>519480</xdr:colOff>
+      <xdr:colOff>353880</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
@@ -8032,7 +8032,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>439920</xdr:colOff>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
@@ -10480,7 +10480,7 @@
   </sheetPr>
   <dimension ref="B1:S74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I61" activeCellId="0" sqref="I61"/>
     </sheetView>
   </sheetViews>
@@ -10488,7 +10488,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="12.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="12.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="12.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
